--- a/posix/Charts.xlsx
+++ b/posix/Charts.xlsx
@@ -22,8 +22,9 @@
     <sheet name="Speedup 11" sheetId="8" r:id="rId8"/>
     <sheet name="Speedup 13" sheetId="9" r:id="rId9"/>
     <sheet name="Speedup15" sheetId="10" r:id="rId10"/>
+    <sheet name="time " sheetId="11" r:id="rId11"/>
   </sheets>
-  <calcPr calcId="0" concurrentCalc="0"/>
+  <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="320" uniqueCount="8">
   <si>
     <t>1280x720</t>
   </si>
@@ -124,11 +125,10 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="3" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="7">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -318,22 +318,22 @@
             <c:numRef>
               <c:f>'Time 720'!$D$2:$D$6</c:f>
               <c:numCache>
-                <c:formatCode>#,##0</c:formatCode>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>3881.0</c:v>
+                  <c:v>0.662</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2776.0</c:v>
+                  <c:v>0.405</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2493.0</c:v>
+                  <c:v>0.346</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2407.0</c:v>
+                  <c:v>0.273</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2421.0</c:v>
+                  <c:v>0.276</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -383,22 +383,22 @@
             <c:numRef>
               <c:f>'Time 720'!$D$7:$D$11</c:f>
               <c:numCache>
-                <c:formatCode>#,##0</c:formatCode>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>4085.0</c:v>
+                  <c:v>1.005</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2583.0</c:v>
+                  <c:v>0.724</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1584.0</c:v>
+                  <c:v>0.554</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1627.0</c:v>
+                  <c:v>0.499</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1339.0</c:v>
+                  <c:v>0.479</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -424,22 +424,22 @@
             <c:numRef>
               <c:f>'Time 720'!$D$12:$D$16</c:f>
               <c:numCache>
-                <c:formatCode>#,##0</c:formatCode>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>4222.0</c:v>
+                  <c:v>1.958</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2669.0</c:v>
+                  <c:v>1.192</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2459.0</c:v>
+                  <c:v>1.041</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2635.0</c:v>
+                  <c:v>0.832</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2190.0</c:v>
+                  <c:v>0.826</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -465,22 +465,22 @@
             <c:numRef>
               <c:f>'Time 720'!$D$17:$D$21</c:f>
               <c:numCache>
-                <c:formatCode>#,##0</c:formatCode>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>5416.0</c:v>
+                  <c:v>2.582</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4121.0</c:v>
+                  <c:v>1.346</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4406.0</c:v>
+                  <c:v>0.983</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3980.0</c:v>
+                  <c:v>0.997</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3593.0</c:v>
+                  <c:v>0.979</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -506,22 +506,22 @@
             <c:numRef>
               <c:f>'Time 720'!$D$22:$D$26</c:f>
               <c:numCache>
-                <c:formatCode>#,##0</c:formatCode>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>10522.0</c:v>
+                  <c:v>2.613</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>6833.0</c:v>
+                  <c:v>1.371</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>5053.0</c:v>
+                  <c:v>1.377</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>5407.0</c:v>
+                  <c:v>1.402</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>4768.0</c:v>
+                  <c:v>1.416</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -547,22 +547,22 @@
             <c:numRef>
               <c:f>'Time 720'!$D$27:$D$31</c:f>
               <c:numCache>
-                <c:formatCode>#,##0</c:formatCode>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>11707.0</c:v>
+                  <c:v>3.496</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>7371.0</c:v>
+                  <c:v>1.85</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>6834.0</c:v>
+                  <c:v>1.865</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>7140.0</c:v>
+                  <c:v>1.861</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>6478.0</c:v>
+                  <c:v>1.858</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -590,22 +590,22 @@
             <c:numRef>
               <c:f>'Time 720'!$D$32:$D$36</c:f>
               <c:numCache>
-                <c:formatCode>#,##0</c:formatCode>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>18715.0</c:v>
+                  <c:v>4.531</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>11771.0</c:v>
+                  <c:v>2.387</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>9566.0</c:v>
+                  <c:v>2.424</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>8499.0</c:v>
+                  <c:v>2.479</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>7906.0</c:v>
+                  <c:v>2.431</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -620,11 +620,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="43338576"/>
-        <c:axId val="31499056"/>
+        <c:axId val="45515152"/>
+        <c:axId val="37469296"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="43338576"/>
+        <c:axId val="45515152"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -754,7 +754,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="31499056"/>
+        <c:crossAx val="37469296"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -762,7 +762,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="31499056"/>
+        <c:axId val="37469296"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -891,7 +891,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="43338576"/>
+        <c:crossAx val="45515152"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1133,16 +1133,16 @@
                   <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.589924390451109</c:v>
+                  <c:v>1.89819857561793</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.956408112063558</c:v>
+                  <c:v>1.869224422442244</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2.202023767502058</c:v>
+                  <c:v>1.827753126260589</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2.367189476347078</c:v>
+                  <c:v>1.863842040312628</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1213,16 +1213,16 @@
                   <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.381039622407154</c:v>
+                  <c:v>1.922498118886381</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.746377665213806</c:v>
+                  <c:v>1.886304909560724</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.836140698538519</c:v>
+                  <c:v>1.878676470588235</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2.14358010410642</c:v>
+                  <c:v>1.890142407989643</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1405,16 +1405,16 @@
                   <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.956370541536068</c:v>
+                  <c:v>1.872492570579495</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.511922092718346</c:v>
+                  <c:v>1.873884758364312</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.414260340015224</c:v>
+                  <c:v>1.872057936028968</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.902014537429901</c:v>
+                  <c:v>1.867722662220369</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1431,11 +1431,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-356041984"/>
-        <c:axId val="-356039280"/>
+        <c:axId val="91661696"/>
+        <c:axId val="91665328"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-356041984"/>
+        <c:axId val="91661696"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1552,7 +1552,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-356039280"/>
+        <c:crossAx val="91665328"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1560,7 +1560,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-356039280"/>
+        <c:axId val="91665328"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="1.0"/>
@@ -1682,7 +1682,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-356041984"/>
+        <c:crossAx val="91661696"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1918,22 +1918,22 @@
             <c:numRef>
               <c:f>'Time 1080'!$D$1:$D$5</c:f>
               <c:numCache>
-                <c:formatCode>#,##0</c:formatCode>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>2364.0</c:v>
+                  <c:v>0.783</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1529.0</c:v>
+                  <c:v>0.458</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1586.0</c:v>
+                  <c:v>0.445</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1822.0</c:v>
+                  <c:v>0.448</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1750.0</c:v>
+                  <c:v>0.45</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1983,22 +1983,22 @@
             <c:numRef>
               <c:f>'Time 1080'!$D$6:$D$10</c:f>
               <c:numCache>
-                <c:formatCode>#,##0</c:formatCode>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>4095.0</c:v>
+                  <c:v>1.449</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3347.0</c:v>
+                  <c:v>0.832</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3929.0</c:v>
+                  <c:v>0.808</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3997.0</c:v>
+                  <c:v>0.812</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2995.0</c:v>
+                  <c:v>0.822</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2024,22 +2024,22 @@
             <c:numRef>
               <c:f>'Time 1080'!$D$11:$D$15</c:f>
               <c:numCache>
-                <c:formatCode>#,##0</c:formatCode>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>8578.0</c:v>
+                  <c:v>2.674</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>6047.0</c:v>
+                  <c:v>1.413</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>5595.0</c:v>
+                  <c:v>1.43</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>6674.0</c:v>
+                  <c:v>1.39</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>5029.0</c:v>
+                  <c:v>1.386</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2065,22 +2065,22 @@
             <c:numRef>
               <c:f>'Time 1080'!$D$16:$D$20</c:f>
               <c:numCache>
-                <c:formatCode>#,##0</c:formatCode>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>13910.0</c:v>
+                  <c:v>4.055</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>9258.0</c:v>
+                  <c:v>2.135</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>7820.0</c:v>
+                  <c:v>2.123</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>8508.0</c:v>
+                  <c:v>2.135</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>7947.0</c:v>
+                  <c:v>2.119</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2106,22 +2106,22 @@
             <c:numRef>
               <c:f>'Time 1080'!$D$21:$D$25</c:f>
               <c:numCache>
-                <c:formatCode>#,##0</c:formatCode>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>20449.0</c:v>
+                  <c:v>5.928</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>29693.0</c:v>
+                  <c:v>3.033</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>16045.0</c:v>
+                  <c:v>3.031</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>13216.0</c:v>
+                  <c:v>3.047</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>11301.0</c:v>
+                  <c:v>3.031</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2147,22 +2147,22 @@
             <c:numRef>
               <c:f>'Time 1080'!$D$26:$D$30</c:f>
               <c:numCache>
-                <c:formatCode>#,##0</c:formatCode>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>34015.0</c:v>
+                  <c:v>7.857</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>25682.0</c:v>
+                  <c:v>4.095</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>20574.0</c:v>
+                  <c:v>4.13</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>22566.0</c:v>
+                  <c:v>4.145</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>16025.0</c:v>
+                  <c:v>4.129</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2188,22 +2188,22 @@
             <c:numRef>
               <c:f>'Time 1080'!$D$31:$D$35</c:f>
               <c:numCache>
-                <c:formatCode>#,##0</c:formatCode>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>44475.0</c:v>
+                  <c:v>10.22</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>32204.0</c:v>
+                  <c:v>5.316</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>25467.0</c:v>
+                  <c:v>5.418</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>24222.0</c:v>
+                  <c:v>5.44</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>20748.0</c:v>
+                  <c:v>5.407</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2218,11 +2218,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="-190864"/>
-        <c:axId val="-188672"/>
+        <c:axId val="138251824"/>
+        <c:axId val="138281712"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-190864"/>
+        <c:axId val="138251824"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2352,7 +2352,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-188672"/>
+        <c:crossAx val="138281712"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2360,7 +2360,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-188672"/>
+        <c:axId val="138281712"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2489,7 +2489,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-190864"/>
+        <c:crossAx val="138251824"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2734,22 +2734,22 @@
             <c:numRef>
               <c:f>'Time 4k'!$D$1:$D$5</c:f>
               <c:numCache>
-                <c:formatCode>#,##0</c:formatCode>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>34274.0</c:v>
+                  <c:v>3.021</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>8462.0</c:v>
+                  <c:v>1.66</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>7150.0</c:v>
+                  <c:v>1.573</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>7257.0</c:v>
+                  <c:v>1.571</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>6409.0</c:v>
+                  <c:v>1.607</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2799,22 +2799,22 @@
             <c:numRef>
               <c:f>'Time 4k'!$D$6:$D$10</c:f>
               <c:numCache>
-                <c:formatCode>#,##0</c:formatCode>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>18945.0</c:v>
+                  <c:v>5.619</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>13533.0</c:v>
+                  <c:v>3.05</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>14095.0</c:v>
+                  <c:v>3.023</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>14642.0</c:v>
+                  <c:v>3.047</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>13236.0</c:v>
+                  <c:v>3.034</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2840,22 +2840,22 @@
             <c:numRef>
               <c:f>'Time 4k'!$D$11:$D$15</c:f>
               <c:numCache>
-                <c:formatCode>#,##0</c:formatCode>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>35406.0</c:v>
+                  <c:v>10.39</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>24113.0</c:v>
+                  <c:v>5.511</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>21810.0</c:v>
+                  <c:v>5.36</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>23893.0</c:v>
+                  <c:v>5.35</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>20440.0</c:v>
+                  <c:v>5.382</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2881,22 +2881,22 @@
             <c:numRef>
               <c:f>'Time 4k'!$D$16:$D$20</c:f>
               <c:numCache>
-                <c:formatCode>#,##0</c:formatCode>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>59367.0</c:v>
+                  <c:v>16.046</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>62137.0</c:v>
+                  <c:v>8.352</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>37646.0</c:v>
+                  <c:v>8.335</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>37268.0</c:v>
+                  <c:v>8.294</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>30765.0</c:v>
+                  <c:v>8.328</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2922,22 +2922,22 @@
             <c:numRef>
               <c:f>'Time 4k'!$D$21:$D$25</c:f>
               <c:numCache>
-                <c:formatCode>#,##0</c:formatCode>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>82582.0</c:v>
+                  <c:v>22.879</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>53041.0</c:v>
+                  <c:v>11.906</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>66275.0</c:v>
+                  <c:v>12.038</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>63838.0</c:v>
+                  <c:v>12.21</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>51754.0</c:v>
+                  <c:v>11.998</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2963,22 +2963,22 @@
             <c:numRef>
               <c:f>'Time 4k'!$D$26:$D$30</c:f>
               <c:numCache>
-                <c:formatCode>#,##0</c:formatCode>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>108870.0</c:v>
+                  <c:v>31.446</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>95471.0</c:v>
+                  <c:v>16.212</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>39292.0</c:v>
+                  <c:v>16.382</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>55387.0</c:v>
+                  <c:v>16.396</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>55330.0</c:v>
+                  <c:v>16.398</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3007,22 +3007,22 @@
             <c:numRef>
               <c:f>'Time 4k'!$D$31:$D$35</c:f>
               <c:numCache>
-                <c:formatCode>#,##0</c:formatCode>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>167208.0</c:v>
+                  <c:v>40.326</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>174836.0</c:v>
+                  <c:v>21.536</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>110593.0</c:v>
+                  <c:v>21.52</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>118230.0</c:v>
+                  <c:v>21.541</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>87911.0</c:v>
+                  <c:v>21.591</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3037,11 +3037,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="41954704"/>
-        <c:axId val="48876224"/>
+        <c:axId val="45519280"/>
+        <c:axId val="45522128"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="41954704"/>
+        <c:axId val="45519280"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3171,7 +3171,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="48876224"/>
+        <c:crossAx val="45522128"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3179,7 +3179,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="48876224"/>
+        <c:axId val="45522128"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3308,7 +3308,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="41954704"/>
+        <c:crossAx val="45519280"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3555,16 +3555,16 @@
                   <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.398054755043228</c:v>
+                  <c:v>1.634567901234568</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.556758924989972</c:v>
+                  <c:v>1.913294797687862</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.612380556709597</c:v>
+                  <c:v>2.424908424908425</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.6030565881867</c:v>
+                  <c:v>2.398550724637681</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3635,16 +3635,16 @@
                   <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.451197053406998</c:v>
+                  <c:v>1.709606986899563</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.490542244640605</c:v>
+                  <c:v>1.759550561797753</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.662447257383966</c:v>
+                  <c:v>1.747767857142857</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.751111111111111</c:v>
+                  <c:v>1.74</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3827,16 +3827,16 @@
                   <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4.050342708579531</c:v>
+                  <c:v>1.819879518072289</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4.793566433566434</c:v>
+                  <c:v>1.920534011443102</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4.856737990647584</c:v>
+                  <c:v>1.922978994271165</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>5.347792167264783</c:v>
+                  <c:v>1.879900435594275</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3853,11 +3853,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-395770576"/>
-        <c:axId val="-3403856"/>
+        <c:axId val="138335104"/>
+        <c:axId val="138339648"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-395770576"/>
+        <c:axId val="138335104"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3974,7 +3974,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-3403856"/>
+        <c:crossAx val="138339648"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3982,7 +3982,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-3403856"/>
+        <c:axId val="138339648"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="1.0"/>
@@ -4104,7 +4104,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-395770576"/>
+        <c:crossAx val="138335104"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4337,16 +4337,16 @@
                   <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.581494386372435</c:v>
+                  <c:v>1.388121546961326</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2.578914141414141</c:v>
+                  <c:v>1.814079422382671</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3.078372268274303</c:v>
+                  <c:v>2.014028056112224</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3.050784167289021</c:v>
+                  <c:v>2.09812108559499</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4417,16 +4417,16 @@
                   <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.03749683303775</c:v>
+                  <c:v>1.741586538461538</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.069469835466179</c:v>
+                  <c:v>1.793316831683168</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.107654855288071</c:v>
+                  <c:v>1.78448275862069</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.367278797996661</c:v>
+                  <c:v>1.762773722627737</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4609,16 +4609,16 @@
                   <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.219661366123737</c:v>
+                  <c:v>1.842295081967213</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.344093650230578</c:v>
+                  <c:v>1.858749586503473</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.293880617401994</c:v>
+                  <c:v>1.844108959632425</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.431323662737987</c:v>
+                  <c:v>1.852010547132498</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4635,11 +4635,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="111945136"/>
-        <c:axId val="-394812736"/>
+        <c:axId val="45449744"/>
+        <c:axId val="68485440"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="111945136"/>
+        <c:axId val="45449744"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4756,7 +4756,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-394812736"/>
+        <c:crossAx val="68485440"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4764,7 +4764,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-394812736"/>
+        <c:axId val="68485440"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="1.0"/>
@@ -4886,7 +4886,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="111945136"/>
+        <c:crossAx val="45449744"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5119,16 +5119,16 @@
                   <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.581865867366055</c:v>
+                  <c:v>1.642617449664429</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.716958113054087</c:v>
+                  <c:v>1.880883765609991</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.602277039848197</c:v>
+                  <c:v>2.353365384615385</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.927853881278539</c:v>
+                  <c:v>2.37046004842615</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5199,16 +5199,16 @@
                   <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.418554655200926</c:v>
+                  <c:v>1.89242745930644</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.533154602323503</c:v>
+                  <c:v>1.86993006993007</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.285286185196284</c:v>
+                  <c:v>1.923741007194245</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.705706899980115</c:v>
+                  <c:v>1.929292929292929</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5391,16 +5391,16 @@
                   <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.468336581926761</c:v>
+                  <c:v>1.885320268553801</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.623383768913342</c:v>
+                  <c:v>1.938432835820896</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.481856610722806</c:v>
+                  <c:v>1.942056074766355</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.732191780821918</c:v>
+                  <c:v>1.930509104422148</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5417,11 +5417,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-358417712"/>
-        <c:axId val="-396585488"/>
+        <c:axId val="45517936"/>
+        <c:axId val="45338512"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-358417712"/>
+        <c:axId val="45517936"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5538,7 +5538,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-396585488"/>
+        <c:crossAx val="45338512"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5546,7 +5546,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-396585488"/>
+        <c:axId val="45338512"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="1.0"/>
@@ -5668,7 +5668,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-358417712"/>
+        <c:crossAx val="45517936"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5901,16 +5901,16 @@
                   <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.314244115505945</c:v>
+                  <c:v>1.918276374442793</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.351972041937094</c:v>
+                  <c:v>2.626653102746693</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.360804020100502</c:v>
+                  <c:v>2.589769307923771</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.507375452268299</c:v>
+                  <c:v>2.637385086823289</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5981,16 +5981,16 @@
                   <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.50248433786995</c:v>
+                  <c:v>1.899297423887588</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.778772378516624</c:v>
+                  <c:v>1.910032972209138</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.852690463505594</c:v>
+                  <c:v>1.899297423887588</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2.002303152439902</c:v>
+                  <c:v>1.913638508730533</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6173,16 +6173,16 @@
                   <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.955421085665545</c:v>
+                  <c:v>1.921216475095785</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.576980290070658</c:v>
+                  <c:v>1.925134973005399</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.59297520661157</c:v>
+                  <c:v>1.93465155534121</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.929692832764505</c:v>
+                  <c:v>1.926753121998079</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6199,11 +6199,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-360260688"/>
-        <c:axId val="-356263600"/>
+        <c:axId val="91971232"/>
+        <c:axId val="92088208"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-360260688"/>
+        <c:axId val="91971232"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6320,7 +6320,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-356263600"/>
+        <c:crossAx val="92088208"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -6328,7 +6328,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-356263600"/>
+        <c:axId val="92088208"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="1.0"/>
@@ -6450,7 +6450,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-360260688"/>
+        <c:crossAx val="91971232"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6699,16 +6699,16 @@
                   <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.539879994146056</c:v>
+                  <c:v>1.905908096280088</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.861312577392535</c:v>
+                  <c:v>1.89760348583878</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.945995931200296</c:v>
+                  <c:v>1.86376604850214</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2.206795302013423</c:v>
+                  <c:v>1.845338983050847</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6779,16 +6779,16 @@
                   <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.688680833866568</c:v>
+                  <c:v>1.954500494559842</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.274478030539109</c:v>
+                  <c:v>1.9557901682613</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.547291162227603</c:v>
+                  <c:v>1.945520183787332</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.809485886204761</c:v>
+                  <c:v>1.9557901682613</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7016,16 +7016,16 @@
                   <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.556946513074791</c:v>
+                  <c:v>1.921636149840417</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.24605054696341</c:v>
+                  <c:v>1.900564877886692</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.293618221122216</c:v>
+                  <c:v>1.873791973791974</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.595664103257719</c:v>
+                  <c:v>1.906901150191699</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7042,11 +7042,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-358387216"/>
-        <c:axId val="-358361264"/>
+        <c:axId val="91919936"/>
+        <c:axId val="91923568"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-358387216"/>
+        <c:axId val="91919936"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7163,7 +7163,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-358361264"/>
+        <c:crossAx val="91923568"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -7171,7 +7171,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-358361264"/>
+        <c:axId val="91923568"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="1.0"/>
@@ -7293,7 +7293,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-358387216"/>
+        <c:crossAx val="91919936"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -7533,16 +7533,16 @@
                   <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.588251254917922</c:v>
+                  <c:v>1.88972972972973</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.713052385133158</c:v>
+                  <c:v>1.874530831099196</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.639635854341737</c:v>
+                  <c:v>1.878559914024718</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.807193578264897</c:v>
+                  <c:v>1.881593110871905</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7613,16 +7613,16 @@
                   <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.324468499338058</c:v>
+                  <c:v>1.918681318681319</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.653300281909206</c:v>
+                  <c:v>1.902421307506053</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.507356199592307</c:v>
+                  <c:v>1.895536791314837</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2.122620904836193</c:v>
+                  <c:v>1.902882053766045</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7835,16 +7835,16 @@
                   <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.140346283164521</c:v>
+                  <c:v>1.939674315321984</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2.770793036750483</c:v>
+                  <c:v>1.919545842998413</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.965623702312817</c:v>
+                  <c:v>1.91790680653818</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.967648653533345</c:v>
+                  <c:v>1.917672886937432</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7861,11 +7861,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-394476896"/>
-        <c:axId val="-395121376"/>
+        <c:axId val="-60896720"/>
+        <c:axId val="90483072"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-394476896"/>
+        <c:axId val="-60896720"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7982,7 +7982,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-395121376"/>
+        <c:crossAx val="90483072"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -7990,7 +7990,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-395121376"/>
+        <c:axId val="90483072"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="1.0"/>
@@ -8112,7 +8112,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-394476896"/>
+        <c:crossAx val="-60896720"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -14385,7 +14385,7 @@
   <dimension ref="A1:E36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+      <selection activeCell="D2" sqref="D2:D36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -14417,8 +14417,8 @@
       <c r="C2">
         <v>1</v>
       </c>
-      <c r="D2" s="1">
-        <v>3881</v>
+      <c r="D2">
+        <v>0.66200000000000003</v>
       </c>
       <c r="E2">
         <f>$D$2/D2</f>
@@ -14435,12 +14435,12 @@
       <c r="C3">
         <v>2</v>
       </c>
-      <c r="D3" s="1">
-        <v>2776</v>
+      <c r="D3">
+        <v>0.40500000000000003</v>
       </c>
       <c r="E3">
-        <f t="shared" ref="E3:E7" si="0">$D$2/D3</f>
-        <v>1.3980547550432276</v>
+        <f t="shared" ref="E3:E6" si="0">$D$2/D3</f>
+        <v>1.634567901234568</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
@@ -14453,12 +14453,12 @@
       <c r="C4">
         <v>4</v>
       </c>
-      <c r="D4" s="1">
-        <v>2493</v>
+      <c r="D4">
+        <v>0.34599999999999997</v>
       </c>
       <c r="E4">
         <f t="shared" si="0"/>
-        <v>1.5567589249899718</v>
+        <v>1.9132947976878616</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
@@ -14471,12 +14471,12 @@
       <c r="C5">
         <v>8</v>
       </c>
-      <c r="D5" s="1">
-        <v>2407</v>
+      <c r="D5">
+        <v>0.27300000000000002</v>
       </c>
       <c r="E5">
         <f t="shared" si="0"/>
-        <v>1.612380556709597</v>
+        <v>2.4249084249084247</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
@@ -14489,12 +14489,12 @@
       <c r="C6">
         <v>16</v>
       </c>
-      <c r="D6" s="1">
-        <v>2421</v>
+      <c r="D6">
+        <v>0.27600000000000002</v>
       </c>
       <c r="E6">
         <f t="shared" si="0"/>
-        <v>1.6030565881866996</v>
+        <v>2.3985507246376812</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
@@ -14507,8 +14507,8 @@
       <c r="C7">
         <v>1</v>
       </c>
-      <c r="D7" s="1">
-        <v>4085</v>
+      <c r="D7">
+        <v>1.0049999999999999</v>
       </c>
       <c r="E7">
         <f>$D$7/D7</f>
@@ -14525,12 +14525,12 @@
       <c r="C8">
         <v>2</v>
       </c>
-      <c r="D8" s="1">
-        <v>2583</v>
+      <c r="D8">
+        <v>0.72399999999999998</v>
       </c>
       <c r="E8">
-        <f t="shared" ref="E8:E12" si="1">$D$7/D8</f>
-        <v>1.5814943863724351</v>
+        <f t="shared" ref="E8:E11" si="1">$D$7/D8</f>
+        <v>1.3881215469613259</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
@@ -14543,12 +14543,12 @@
       <c r="C9">
         <v>4</v>
       </c>
-      <c r="D9" s="1">
-        <v>1584</v>
+      <c r="D9">
+        <v>0.55400000000000005</v>
       </c>
       <c r="E9">
         <f t="shared" si="1"/>
-        <v>2.5789141414141414</v>
+        <v>1.8140794223826711</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
@@ -14561,12 +14561,12 @@
       <c r="C10">
         <v>8</v>
       </c>
-      <c r="D10" s="1">
-        <v>1627</v>
+      <c r="D10">
+        <v>0.499</v>
       </c>
       <c r="E10">
         <f t="shared" si="1"/>
-        <v>2.5107559926244623</v>
+        <v>2.0140280561122244</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
@@ -14579,12 +14579,12 @@
       <c r="C11">
         <v>16</v>
       </c>
-      <c r="D11" s="1">
-        <v>1339</v>
+      <c r="D11">
+        <v>0.47899999999999998</v>
       </c>
       <c r="E11">
         <f t="shared" si="1"/>
-        <v>3.0507841672890215</v>
+        <v>2.0981210855949892</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
@@ -14597,8 +14597,8 @@
       <c r="C12">
         <v>1</v>
       </c>
-      <c r="D12" s="1">
-        <v>4222</v>
+      <c r="D12">
+        <v>1.958</v>
       </c>
       <c r="E12">
         <f>$D$12/D12</f>
@@ -14615,12 +14615,12 @@
       <c r="C13">
         <v>2</v>
       </c>
-      <c r="D13" s="1">
-        <v>2669</v>
+      <c r="D13">
+        <v>1.1919999999999999</v>
       </c>
       <c r="E13">
-        <f t="shared" ref="E13:E17" si="2">$D$12/D13</f>
-        <v>1.5818658673660546</v>
+        <f t="shared" ref="E13:E16" si="2">$D$12/D13</f>
+        <v>1.6426174496644295</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
@@ -14633,12 +14633,12 @@
       <c r="C14">
         <v>4</v>
       </c>
-      <c r="D14" s="1">
-        <v>2459</v>
+      <c r="D14">
+        <v>1.0409999999999999</v>
       </c>
       <c r="E14">
         <f t="shared" si="2"/>
-        <v>1.716958113054087</v>
+        <v>1.8808837656099906</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
@@ -14651,12 +14651,12 @@
       <c r="C15">
         <v>8</v>
       </c>
-      <c r="D15" s="1">
-        <v>2635</v>
+      <c r="D15">
+        <v>0.83199999999999996</v>
       </c>
       <c r="E15">
         <f t="shared" si="2"/>
-        <v>1.6022770398481974</v>
+        <v>2.3533653846153846</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
@@ -14669,12 +14669,12 @@
       <c r="C16">
         <v>16</v>
       </c>
-      <c r="D16" s="1">
-        <v>2190</v>
+      <c r="D16">
+        <v>0.82599999999999996</v>
       </c>
       <c r="E16">
         <f t="shared" si="2"/>
-        <v>1.9278538812785389</v>
+        <v>2.3704600484261502</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.2">
@@ -14687,8 +14687,8 @@
       <c r="C17">
         <v>1</v>
       </c>
-      <c r="D17" s="1">
-        <v>5416</v>
+      <c r="D17">
+        <v>2.5819999999999999</v>
       </c>
       <c r="E17">
         <f>$D$17/D17</f>
@@ -14705,12 +14705,12 @@
       <c r="C18">
         <v>2</v>
       </c>
-      <c r="D18" s="1">
-        <v>4121</v>
+      <c r="D18">
+        <v>1.3460000000000001</v>
       </c>
       <c r="E18">
-        <f t="shared" ref="E18:E22" si="3">$D$17/D18</f>
-        <v>1.3142441155059452</v>
+        <f t="shared" ref="E18:E21" si="3">$D$17/D18</f>
+        <v>1.9182763744427933</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.2">
@@ -14723,12 +14723,12 @@
       <c r="C19">
         <v>4</v>
       </c>
-      <c r="D19" s="1">
-        <v>4406</v>
+      <c r="D19">
+        <v>0.98299999999999998</v>
       </c>
       <c r="E19">
         <f t="shared" si="3"/>
-        <v>1.2292328642759873</v>
+        <v>2.6266531027466935</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.2">
@@ -14741,12 +14741,12 @@
       <c r="C20">
         <v>8</v>
       </c>
-      <c r="D20" s="1">
-        <v>3980</v>
+      <c r="D20">
+        <v>0.997</v>
       </c>
       <c r="E20">
         <f t="shared" si="3"/>
-        <v>1.3608040201005025</v>
+        <v>2.5897693079237714</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.2">
@@ -14759,12 +14759,12 @@
       <c r="C21">
         <v>16</v>
       </c>
-      <c r="D21" s="1">
-        <v>3593</v>
+      <c r="D21">
+        <v>0.97899999999999998</v>
       </c>
       <c r="E21">
         <f t="shared" si="3"/>
-        <v>1.5073754522682994</v>
+        <v>2.6373850868232891</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.2">
@@ -14777,8 +14777,8 @@
       <c r="C22">
         <v>1</v>
       </c>
-      <c r="D22" s="1">
-        <v>10522</v>
+      <c r="D22">
+        <v>2.613</v>
       </c>
       <c r="E22">
         <f>$D$22/D22</f>
@@ -14795,12 +14795,12 @@
       <c r="C23">
         <v>2</v>
       </c>
-      <c r="D23" s="1">
-        <v>6833</v>
+      <c r="D23">
+        <v>1.371</v>
       </c>
       <c r="E23">
-        <f t="shared" ref="E23:E27" si="4">$D$22/D23</f>
-        <v>1.5398799941460559</v>
+        <f t="shared" ref="E23:E26" si="4">$D$22/D23</f>
+        <v>1.9059080962800876</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.2">
@@ -14813,12 +14813,12 @@
       <c r="C24">
         <v>4</v>
       </c>
-      <c r="D24" s="1">
-        <v>5053</v>
+      <c r="D24">
+        <v>1.377</v>
       </c>
       <c r="E24">
         <f t="shared" si="4"/>
-        <v>2.0823273302988325</v>
+        <v>1.89760348583878</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.2">
@@ -14831,12 +14831,12 @@
       <c r="C25">
         <v>8</v>
       </c>
-      <c r="D25" s="1">
-        <v>5407</v>
+      <c r="D25">
+        <v>1.4019999999999999</v>
       </c>
       <c r="E25">
         <f t="shared" si="4"/>
-        <v>1.9459959312002959</v>
+        <v>1.8637660485021399</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.2">
@@ -14849,12 +14849,12 @@
       <c r="C26">
         <v>16</v>
       </c>
-      <c r="D26" s="1">
-        <v>4768</v>
+      <c r="D26">
+        <v>1.4159999999999999</v>
       </c>
       <c r="E26">
         <f t="shared" si="4"/>
-        <v>2.2067953020134228</v>
+        <v>1.8453389830508475</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.2">
@@ -14867,8 +14867,8 @@
       <c r="C27">
         <v>1</v>
       </c>
-      <c r="D27" s="1">
-        <v>11707</v>
+      <c r="D27">
+        <v>3.496</v>
       </c>
       <c r="E27">
         <f>$D$27/D27</f>
@@ -14885,12 +14885,12 @@
       <c r="C28">
         <v>2</v>
       </c>
-      <c r="D28" s="1">
-        <v>7371</v>
+      <c r="D28">
+        <v>1.85</v>
       </c>
       <c r="E28">
-        <f t="shared" ref="E28:E32" si="5">$D$27/D28</f>
-        <v>1.5882512549179215</v>
+        <f t="shared" ref="E28:E31" si="5">$D$27/D28</f>
+        <v>1.8897297297297297</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.2">
@@ -14903,12 +14903,12 @@
       <c r="C29">
         <v>4</v>
       </c>
-      <c r="D29" s="1">
-        <v>6834</v>
+      <c r="D29">
+        <v>1.865</v>
       </c>
       <c r="E29">
         <f t="shared" si="5"/>
-        <v>1.7130523851331578</v>
+        <v>1.8745308310991957</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.2">
@@ -14921,12 +14921,12 @@
       <c r="C30">
         <v>8</v>
       </c>
-      <c r="D30" s="1">
-        <v>7140</v>
+      <c r="D30">
+        <v>1.861</v>
       </c>
       <c r="E30">
         <f t="shared" si="5"/>
-        <v>1.6396358543417366</v>
+        <v>1.878559914024718</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.2">
@@ -14939,12 +14939,12 @@
       <c r="C31">
         <v>16</v>
       </c>
-      <c r="D31" s="1">
-        <v>6478</v>
+      <c r="D31">
+        <v>1.8580000000000001</v>
       </c>
       <c r="E31">
         <f t="shared" si="5"/>
-        <v>1.8071935782648967</v>
+        <v>1.8815931108719053</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.2">
@@ -14957,8 +14957,8 @@
       <c r="C32">
         <v>1</v>
       </c>
-      <c r="D32" s="1">
-        <v>18715</v>
+      <c r="D32">
+        <v>4.5309999999999997</v>
       </c>
       <c r="E32">
         <f>$D$32/D32</f>
@@ -14975,12 +14975,12 @@
       <c r="C33">
         <v>2</v>
       </c>
-      <c r="D33" s="1">
-        <v>11771</v>
+      <c r="D33">
+        <v>2.387</v>
       </c>
       <c r="E33">
         <f t="shared" ref="E33:E36" si="6">$D$32/D33</f>
-        <v>1.5899243904511087</v>
+        <v>1.8981985756179303</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.2">
@@ -14993,12 +14993,12 @@
       <c r="C34">
         <v>4</v>
       </c>
-      <c r="D34" s="1">
-        <v>9566</v>
+      <c r="D34">
+        <v>2.4239999999999999</v>
       </c>
       <c r="E34">
         <f t="shared" si="6"/>
-        <v>1.9564081120635584</v>
+        <v>1.8692244224422441</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.2">
@@ -15011,12 +15011,12 @@
       <c r="C35">
         <v>8</v>
       </c>
-      <c r="D35" s="1">
-        <v>8499</v>
+      <c r="D35">
+        <v>2.4790000000000001</v>
       </c>
       <c r="E35">
         <f t="shared" si="6"/>
-        <v>2.2020237675020589</v>
+        <v>1.8277531262605888</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.2">
@@ -15029,12 +15029,12 @@
       <c r="C36">
         <v>16</v>
       </c>
-      <c r="D36" s="1">
-        <v>7906</v>
+      <c r="D36">
+        <v>2.431</v>
       </c>
       <c r="E36">
         <f t="shared" si="6"/>
-        <v>2.367189476347078</v>
+        <v>1.8638420403126283</v>
       </c>
     </row>
   </sheetData>
@@ -15048,7 +15048,7 @@
   <dimension ref="A1:D15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P27" sqref="P27"/>
+      <selection activeCell="F27" sqref="F27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -15060,8 +15060,8 @@
       <c r="B1">
         <v>1</v>
       </c>
-      <c r="C1" s="1">
-        <v>18715</v>
+      <c r="C1">
+        <v>4.5309999999999997</v>
       </c>
       <c r="D1" s="2">
         <f>$C$1/C1</f>
@@ -15075,12 +15075,12 @@
       <c r="B2">
         <v>2</v>
       </c>
-      <c r="C2" s="1">
-        <v>11771</v>
+      <c r="C2">
+        <v>2.387</v>
       </c>
       <c r="D2" s="2">
-        <f t="shared" ref="D2:D6" si="0">$C$1/C2</f>
-        <v>1.5899243904511087</v>
+        <f t="shared" ref="D2:D5" si="0">$C$1/C2</f>
+        <v>1.8981985756179303</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -15090,12 +15090,12 @@
       <c r="B3">
         <v>4</v>
       </c>
-      <c r="C3" s="1">
-        <v>9566</v>
+      <c r="C3">
+        <v>2.4239999999999999</v>
       </c>
       <c r="D3" s="2">
         <f t="shared" si="0"/>
-        <v>1.9564081120635584</v>
+        <v>1.8692244224422441</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
@@ -15105,12 +15105,12 @@
       <c r="B4">
         <v>8</v>
       </c>
-      <c r="C4" s="1">
-        <v>8499</v>
+      <c r="C4">
+        <v>2.4790000000000001</v>
       </c>
       <c r="D4" s="2">
         <f t="shared" si="0"/>
-        <v>2.2020237675020589</v>
+        <v>1.8277531262605888</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
@@ -15120,12 +15120,12 @@
       <c r="B5">
         <v>16</v>
       </c>
-      <c r="C5" s="1">
-        <v>7906</v>
+      <c r="C5">
+        <v>2.431</v>
       </c>
       <c r="D5" s="2">
         <f t="shared" si="0"/>
-        <v>2.367189476347078</v>
+        <v>1.8638420403126283</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
@@ -15135,8 +15135,8 @@
       <c r="B6">
         <v>1</v>
       </c>
-      <c r="C6" s="1">
-        <v>44475</v>
+      <c r="C6">
+        <v>10.220000000000001</v>
       </c>
       <c r="D6" s="2">
         <f>$C$6/C6</f>
@@ -15150,12 +15150,12 @@
       <c r="B7">
         <v>2</v>
       </c>
-      <c r="C7" s="1">
-        <v>32204</v>
+      <c r="C7">
+        <v>5.3159999999999998</v>
       </c>
       <c r="D7" s="2">
-        <f t="shared" ref="D7:D11" si="1">$C$6/C7</f>
-        <v>1.3810396224071544</v>
+        <f t="shared" ref="D7:D10" si="1">$C$6/C7</f>
+        <v>1.922498118886381</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
@@ -15165,12 +15165,12 @@
       <c r="B8">
         <v>4</v>
       </c>
-      <c r="C8" s="1">
-        <v>25467</v>
+      <c r="C8">
+        <v>5.4180000000000001</v>
       </c>
       <c r="D8" s="2">
         <f t="shared" si="1"/>
-        <v>1.7463776652138061</v>
+        <v>1.8863049095607236</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
@@ -15180,12 +15180,12 @@
       <c r="B9">
         <v>8</v>
       </c>
-      <c r="C9" s="1">
-        <v>24222</v>
+      <c r="C9">
+        <v>5.44</v>
       </c>
       <c r="D9" s="2">
         <f t="shared" si="1"/>
-        <v>1.8361406985385187</v>
+        <v>1.8786764705882353</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
@@ -15195,12 +15195,12 @@
       <c r="B10">
         <v>16</v>
       </c>
-      <c r="C10" s="1">
-        <v>20748</v>
+      <c r="C10">
+        <v>5.407</v>
       </c>
       <c r="D10" s="2">
         <f t="shared" si="1"/>
-        <v>2.14358010410642</v>
+        <v>1.8901424079896432</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
@@ -15210,8 +15210,8 @@
       <c r="B11">
         <v>1</v>
       </c>
-      <c r="C11" s="1">
-        <v>167208</v>
+      <c r="C11">
+        <v>40.326000000000001</v>
       </c>
       <c r="D11" s="2">
         <f>$C$11/C11</f>
@@ -15225,12 +15225,12 @@
       <c r="B12">
         <v>2</v>
       </c>
-      <c r="C12" s="1">
-        <v>174836</v>
+      <c r="C12">
+        <v>21.536000000000001</v>
       </c>
       <c r="D12" s="2">
         <f t="shared" ref="D12:D15" si="2">$C$11/C12</f>
-        <v>0.95637054153606804</v>
+        <v>1.8724925705794948</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
@@ -15240,12 +15240,12 @@
       <c r="B13">
         <v>4</v>
       </c>
-      <c r="C13" s="1">
-        <v>110593</v>
+      <c r="C13">
+        <v>21.52</v>
       </c>
       <c r="D13" s="2">
         <f t="shared" si="2"/>
-        <v>1.5119220927183457</v>
+        <v>1.8738847583643123</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
@@ -15255,12 +15255,12 @@
       <c r="B14">
         <v>8</v>
       </c>
-      <c r="C14" s="1">
-        <v>118230</v>
+      <c r="C14">
+        <v>21.541</v>
       </c>
       <c r="D14" s="2">
         <f t="shared" si="2"/>
-        <v>1.4142603400152245</v>
+        <v>1.872057936028968</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
@@ -15270,17 +15270,1352 @@
       <c r="B15">
         <v>16</v>
       </c>
-      <c r="C15" s="1">
-        <v>87911</v>
+      <c r="C15">
+        <v>21.591000000000001</v>
       </c>
       <c r="D15" s="2">
         <f t="shared" si="2"/>
-        <v>1.9020145374299007</v>
+        <v>1.8677226622203695</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:S32"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="N18" sqref="N18:N32"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1">
+        <v>3</v>
+      </c>
+      <c r="C1">
+        <v>1</v>
+      </c>
+      <c r="D1">
+        <v>0.66200000000000003</v>
+      </c>
+      <c r="F1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G1">
+        <v>5</v>
+      </c>
+      <c r="H1">
+        <v>1</v>
+      </c>
+      <c r="I1">
+        <v>1.0049999999999999</v>
+      </c>
+      <c r="K1" t="s">
+        <v>0</v>
+      </c>
+      <c r="L1">
+        <v>7</v>
+      </c>
+      <c r="M1">
+        <v>1</v>
+      </c>
+      <c r="N1">
+        <v>1.958</v>
+      </c>
+      <c r="P1" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q1">
+        <v>9</v>
+      </c>
+      <c r="R1">
+        <v>1</v>
+      </c>
+      <c r="S1">
+        <v>2.5819999999999999</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>3</v>
+      </c>
+      <c r="C2">
+        <v>2</v>
+      </c>
+      <c r="D2">
+        <v>0.40500000000000003</v>
+      </c>
+      <c r="F2" t="s">
+        <v>0</v>
+      </c>
+      <c r="G2">
+        <v>5</v>
+      </c>
+      <c r="H2">
+        <v>2</v>
+      </c>
+      <c r="I2">
+        <v>0.72399999999999998</v>
+      </c>
+      <c r="K2" t="s">
+        <v>0</v>
+      </c>
+      <c r="L2">
+        <v>7</v>
+      </c>
+      <c r="M2">
+        <v>2</v>
+      </c>
+      <c r="N2">
+        <v>1.1919999999999999</v>
+      </c>
+      <c r="P2" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q2">
+        <v>9</v>
+      </c>
+      <c r="R2">
+        <v>2</v>
+      </c>
+      <c r="S2">
+        <v>1.3460000000000001</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3">
+        <v>3</v>
+      </c>
+      <c r="C3">
+        <v>4</v>
+      </c>
+      <c r="D3">
+        <v>0.34599999999999997</v>
+      </c>
+      <c r="F3" t="s">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>5</v>
+      </c>
+      <c r="H3">
+        <v>4</v>
+      </c>
+      <c r="I3">
+        <v>0.55400000000000005</v>
+      </c>
+      <c r="K3" t="s">
+        <v>0</v>
+      </c>
+      <c r="L3">
+        <v>7</v>
+      </c>
+      <c r="M3">
+        <v>4</v>
+      </c>
+      <c r="N3">
+        <v>1.0409999999999999</v>
+      </c>
+      <c r="P3" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q3">
+        <v>9</v>
+      </c>
+      <c r="R3">
+        <v>4</v>
+      </c>
+      <c r="S3">
+        <v>0.98299999999999998</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4">
+        <v>3</v>
+      </c>
+      <c r="C4">
+        <v>8</v>
+      </c>
+      <c r="D4">
+        <v>0.27300000000000002</v>
+      </c>
+      <c r="F4" t="s">
+        <v>0</v>
+      </c>
+      <c r="G4">
+        <v>5</v>
+      </c>
+      <c r="H4">
+        <v>8</v>
+      </c>
+      <c r="I4">
+        <v>0.499</v>
+      </c>
+      <c r="K4" t="s">
+        <v>0</v>
+      </c>
+      <c r="L4">
+        <v>7</v>
+      </c>
+      <c r="M4">
+        <v>8</v>
+      </c>
+      <c r="N4">
+        <v>0.83199999999999996</v>
+      </c>
+      <c r="P4" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q4">
+        <v>9</v>
+      </c>
+      <c r="R4">
+        <v>8</v>
+      </c>
+      <c r="S4">
+        <v>0.997</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B5">
+        <v>3</v>
+      </c>
+      <c r="C5">
+        <v>16</v>
+      </c>
+      <c r="D5">
+        <v>0.27600000000000002</v>
+      </c>
+      <c r="F5" t="s">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>5</v>
+      </c>
+      <c r="H5">
+        <v>16</v>
+      </c>
+      <c r="I5">
+        <v>0.47899999999999998</v>
+      </c>
+      <c r="K5" t="s">
+        <v>0</v>
+      </c>
+      <c r="L5">
+        <v>7</v>
+      </c>
+      <c r="M5">
+        <v>16</v>
+      </c>
+      <c r="N5">
+        <v>0.82599999999999996</v>
+      </c>
+      <c r="P5" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q5">
+        <v>9</v>
+      </c>
+      <c r="R5">
+        <v>16</v>
+      </c>
+      <c r="S5">
+        <v>0.97899999999999998</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>1</v>
+      </c>
+      <c r="B6">
+        <v>3</v>
+      </c>
+      <c r="C6">
+        <v>1</v>
+      </c>
+      <c r="D6">
+        <v>0.78300000000000003</v>
+      </c>
+      <c r="F6" t="s">
+        <v>1</v>
+      </c>
+      <c r="G6">
+        <v>5</v>
+      </c>
+      <c r="H6">
+        <v>1</v>
+      </c>
+      <c r="I6">
+        <v>1.4490000000000001</v>
+      </c>
+      <c r="K6" t="s">
+        <v>1</v>
+      </c>
+      <c r="L6">
+        <v>7</v>
+      </c>
+      <c r="M6">
+        <v>1</v>
+      </c>
+      <c r="N6">
+        <v>2.6739999999999999</v>
+      </c>
+      <c r="P6" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q6">
+        <v>9</v>
+      </c>
+      <c r="R6">
+        <v>1</v>
+      </c>
+      <c r="S6">
+        <v>4.0549999999999997</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>1</v>
+      </c>
+      <c r="B7">
+        <v>3</v>
+      </c>
+      <c r="C7">
+        <v>2</v>
+      </c>
+      <c r="D7">
+        <v>0.45800000000000002</v>
+      </c>
+      <c r="F7" t="s">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>5</v>
+      </c>
+      <c r="H7">
+        <v>2</v>
+      </c>
+      <c r="I7">
+        <v>0.83199999999999996</v>
+      </c>
+      <c r="K7" t="s">
+        <v>1</v>
+      </c>
+      <c r="L7">
+        <v>7</v>
+      </c>
+      <c r="M7">
+        <v>2</v>
+      </c>
+      <c r="N7">
+        <v>1.413</v>
+      </c>
+      <c r="P7" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q7">
+        <v>9</v>
+      </c>
+      <c r="R7">
+        <v>2</v>
+      </c>
+      <c r="S7">
+        <v>2.1349999999999998</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>1</v>
+      </c>
+      <c r="B8">
+        <v>3</v>
+      </c>
+      <c r="C8">
+        <v>4</v>
+      </c>
+      <c r="D8">
+        <v>0.44500000000000001</v>
+      </c>
+      <c r="F8" t="s">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>5</v>
+      </c>
+      <c r="H8">
+        <v>4</v>
+      </c>
+      <c r="I8">
+        <v>0.80800000000000005</v>
+      </c>
+      <c r="K8" t="s">
+        <v>1</v>
+      </c>
+      <c r="L8">
+        <v>7</v>
+      </c>
+      <c r="M8">
+        <v>4</v>
+      </c>
+      <c r="N8">
+        <v>1.43</v>
+      </c>
+      <c r="P8" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q8">
+        <v>9</v>
+      </c>
+      <c r="R8">
+        <v>4</v>
+      </c>
+      <c r="S8">
+        <v>2.1230000000000002</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B9">
+        <v>3</v>
+      </c>
+      <c r="C9">
+        <v>8</v>
+      </c>
+      <c r="D9">
+        <v>0.44800000000000001</v>
+      </c>
+      <c r="F9" t="s">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>5</v>
+      </c>
+      <c r="H9">
+        <v>8</v>
+      </c>
+      <c r="I9">
+        <v>0.81200000000000006</v>
+      </c>
+      <c r="K9" t="s">
+        <v>1</v>
+      </c>
+      <c r="L9">
+        <v>7</v>
+      </c>
+      <c r="M9">
+        <v>8</v>
+      </c>
+      <c r="N9">
+        <v>1.39</v>
+      </c>
+      <c r="P9" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q9">
+        <v>9</v>
+      </c>
+      <c r="R9">
+        <v>8</v>
+      </c>
+      <c r="S9">
+        <v>2.1349999999999998</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>1</v>
+      </c>
+      <c r="B10">
+        <v>3</v>
+      </c>
+      <c r="C10">
+        <v>16</v>
+      </c>
+      <c r="D10">
+        <v>0.45</v>
+      </c>
+      <c r="F10" t="s">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>5</v>
+      </c>
+      <c r="H10">
+        <v>16</v>
+      </c>
+      <c r="I10">
+        <v>0.82199999999999995</v>
+      </c>
+      <c r="K10" t="s">
+        <v>1</v>
+      </c>
+      <c r="L10">
+        <v>7</v>
+      </c>
+      <c r="M10">
+        <v>16</v>
+      </c>
+      <c r="N10">
+        <v>1.3859999999999999</v>
+      </c>
+      <c r="P10" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q10">
+        <v>9</v>
+      </c>
+      <c r="R10">
+        <v>16</v>
+      </c>
+      <c r="S10">
+        <v>2.1190000000000002</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>2</v>
+      </c>
+      <c r="B11">
+        <v>3</v>
+      </c>
+      <c r="C11">
+        <v>1</v>
+      </c>
+      <c r="D11">
+        <v>3.0209999999999999</v>
+      </c>
+      <c r="F11" t="s">
+        <v>2</v>
+      </c>
+      <c r="G11">
+        <v>5</v>
+      </c>
+      <c r="H11">
+        <v>1</v>
+      </c>
+      <c r="I11">
+        <v>5.6189999999999998</v>
+      </c>
+      <c r="K11" t="s">
+        <v>2</v>
+      </c>
+      <c r="L11">
+        <v>7</v>
+      </c>
+      <c r="M11">
+        <v>1</v>
+      </c>
+      <c r="N11">
+        <v>10.39</v>
+      </c>
+      <c r="P11" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q11">
+        <v>9</v>
+      </c>
+      <c r="R11">
+        <v>1</v>
+      </c>
+      <c r="S11">
+        <v>16.045999999999999</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>2</v>
+      </c>
+      <c r="B12">
+        <v>3</v>
+      </c>
+      <c r="C12">
+        <v>2</v>
+      </c>
+      <c r="D12">
+        <v>1.66</v>
+      </c>
+      <c r="F12" t="s">
+        <v>2</v>
+      </c>
+      <c r="G12">
+        <v>5</v>
+      </c>
+      <c r="H12">
+        <v>2</v>
+      </c>
+      <c r="I12">
+        <v>3.05</v>
+      </c>
+      <c r="K12" t="s">
+        <v>2</v>
+      </c>
+      <c r="L12">
+        <v>7</v>
+      </c>
+      <c r="M12">
+        <v>2</v>
+      </c>
+      <c r="N12">
+        <v>5.5110000000000001</v>
+      </c>
+      <c r="P12" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q12">
+        <v>9</v>
+      </c>
+      <c r="R12">
+        <v>2</v>
+      </c>
+      <c r="S12">
+        <v>8.3520000000000003</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>2</v>
+      </c>
+      <c r="B13">
+        <v>3</v>
+      </c>
+      <c r="C13">
+        <v>4</v>
+      </c>
+      <c r="D13">
+        <v>1.573</v>
+      </c>
+      <c r="F13" t="s">
+        <v>2</v>
+      </c>
+      <c r="G13">
+        <v>5</v>
+      </c>
+      <c r="H13">
+        <v>4</v>
+      </c>
+      <c r="I13">
+        <v>3.0230000000000001</v>
+      </c>
+      <c r="K13" t="s">
+        <v>2</v>
+      </c>
+      <c r="L13">
+        <v>7</v>
+      </c>
+      <c r="M13">
+        <v>4</v>
+      </c>
+      <c r="N13">
+        <v>5.36</v>
+      </c>
+      <c r="P13" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q13">
+        <v>9</v>
+      </c>
+      <c r="R13">
+        <v>4</v>
+      </c>
+      <c r="S13">
+        <v>8.3350000000000009</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>2</v>
+      </c>
+      <c r="B14">
+        <v>3</v>
+      </c>
+      <c r="C14">
+        <v>8</v>
+      </c>
+      <c r="D14">
+        <v>1.571</v>
+      </c>
+      <c r="F14" t="s">
+        <v>2</v>
+      </c>
+      <c r="G14">
+        <v>5</v>
+      </c>
+      <c r="H14">
+        <v>8</v>
+      </c>
+      <c r="I14">
+        <v>3.0470000000000002</v>
+      </c>
+      <c r="K14" t="s">
+        <v>2</v>
+      </c>
+      <c r="L14">
+        <v>7</v>
+      </c>
+      <c r="M14">
+        <v>8</v>
+      </c>
+      <c r="N14">
+        <v>5.35</v>
+      </c>
+      <c r="P14" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q14">
+        <v>9</v>
+      </c>
+      <c r="R14">
+        <v>8</v>
+      </c>
+      <c r="S14">
+        <v>8.2940000000000005</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>2</v>
+      </c>
+      <c r="B15">
+        <v>3</v>
+      </c>
+      <c r="C15">
+        <v>16</v>
+      </c>
+      <c r="D15">
+        <v>1.607</v>
+      </c>
+      <c r="F15" t="s">
+        <v>2</v>
+      </c>
+      <c r="G15">
+        <v>5</v>
+      </c>
+      <c r="H15">
+        <v>16</v>
+      </c>
+      <c r="I15">
+        <v>3.0339999999999998</v>
+      </c>
+      <c r="K15" t="s">
+        <v>2</v>
+      </c>
+      <c r="L15">
+        <v>7</v>
+      </c>
+      <c r="M15">
+        <v>16</v>
+      </c>
+      <c r="N15">
+        <v>5.3819999999999997</v>
+      </c>
+      <c r="P15" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q15">
+        <v>9</v>
+      </c>
+      <c r="R15">
+        <v>16</v>
+      </c>
+      <c r="S15">
+        <v>8.3279999999999994</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>0</v>
+      </c>
+      <c r="B18">
+        <v>11</v>
+      </c>
+      <c r="C18">
+        <v>1</v>
+      </c>
+      <c r="D18">
+        <v>2.613</v>
+      </c>
+      <c r="F18" t="s">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>13</v>
+      </c>
+      <c r="H18">
+        <v>1</v>
+      </c>
+      <c r="I18">
+        <v>3.496</v>
+      </c>
+      <c r="K18" t="s">
+        <v>0</v>
+      </c>
+      <c r="L18">
+        <v>15</v>
+      </c>
+      <c r="M18">
+        <v>1</v>
+      </c>
+      <c r="N18">
+        <v>4.5309999999999997</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>0</v>
+      </c>
+      <c r="B19">
+        <v>11</v>
+      </c>
+      <c r="C19">
+        <v>2</v>
+      </c>
+      <c r="D19">
+        <v>1.371</v>
+      </c>
+      <c r="F19" t="s">
+        <v>0</v>
+      </c>
+      <c r="G19">
+        <v>13</v>
+      </c>
+      <c r="H19">
+        <v>2</v>
+      </c>
+      <c r="I19">
+        <v>1.85</v>
+      </c>
+      <c r="K19" t="s">
+        <v>0</v>
+      </c>
+      <c r="L19">
+        <v>15</v>
+      </c>
+      <c r="M19">
+        <v>2</v>
+      </c>
+      <c r="N19">
+        <v>2.387</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>0</v>
+      </c>
+      <c r="B20">
+        <v>11</v>
+      </c>
+      <c r="C20">
+        <v>4</v>
+      </c>
+      <c r="D20">
+        <v>1.377</v>
+      </c>
+      <c r="F20" t="s">
+        <v>0</v>
+      </c>
+      <c r="G20">
+        <v>13</v>
+      </c>
+      <c r="H20">
+        <v>4</v>
+      </c>
+      <c r="I20">
+        <v>1.865</v>
+      </c>
+      <c r="K20" t="s">
+        <v>0</v>
+      </c>
+      <c r="L20">
+        <v>15</v>
+      </c>
+      <c r="M20">
+        <v>4</v>
+      </c>
+      <c r="N20">
+        <v>2.4239999999999999</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>0</v>
+      </c>
+      <c r="B21">
+        <v>11</v>
+      </c>
+      <c r="C21">
+        <v>8</v>
+      </c>
+      <c r="D21">
+        <v>1.4019999999999999</v>
+      </c>
+      <c r="F21" t="s">
+        <v>0</v>
+      </c>
+      <c r="G21">
+        <v>13</v>
+      </c>
+      <c r="H21">
+        <v>8</v>
+      </c>
+      <c r="I21">
+        <v>1.861</v>
+      </c>
+      <c r="K21" t="s">
+        <v>0</v>
+      </c>
+      <c r="L21">
+        <v>15</v>
+      </c>
+      <c r="M21">
+        <v>8</v>
+      </c>
+      <c r="N21">
+        <v>2.4790000000000001</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>0</v>
+      </c>
+      <c r="B22">
+        <v>11</v>
+      </c>
+      <c r="C22">
+        <v>16</v>
+      </c>
+      <c r="D22">
+        <v>1.4159999999999999</v>
+      </c>
+      <c r="F22" t="s">
+        <v>0</v>
+      </c>
+      <c r="G22">
+        <v>13</v>
+      </c>
+      <c r="H22">
+        <v>16</v>
+      </c>
+      <c r="I22">
+        <v>1.8580000000000001</v>
+      </c>
+      <c r="K22" t="s">
+        <v>0</v>
+      </c>
+      <c r="L22">
+        <v>15</v>
+      </c>
+      <c r="M22">
+        <v>16</v>
+      </c>
+      <c r="N22">
+        <v>2.431</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>1</v>
+      </c>
+      <c r="B23">
+        <v>11</v>
+      </c>
+      <c r="C23">
+        <v>1</v>
+      </c>
+      <c r="D23">
+        <v>5.9279999999999999</v>
+      </c>
+      <c r="F23" t="s">
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <v>13</v>
+      </c>
+      <c r="H23">
+        <v>1</v>
+      </c>
+      <c r="I23">
+        <v>7.8570000000000002</v>
+      </c>
+      <c r="K23" t="s">
+        <v>1</v>
+      </c>
+      <c r="L23">
+        <v>15</v>
+      </c>
+      <c r="M23">
+        <v>1</v>
+      </c>
+      <c r="N23">
+        <v>10.220000000000001</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>1</v>
+      </c>
+      <c r="B24">
+        <v>11</v>
+      </c>
+      <c r="C24">
+        <v>2</v>
+      </c>
+      <c r="D24">
+        <v>3.0329999999999999</v>
+      </c>
+      <c r="F24" t="s">
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <v>13</v>
+      </c>
+      <c r="H24">
+        <v>2</v>
+      </c>
+      <c r="I24">
+        <v>4.0949999999999998</v>
+      </c>
+      <c r="K24" t="s">
+        <v>1</v>
+      </c>
+      <c r="L24">
+        <v>15</v>
+      </c>
+      <c r="M24">
+        <v>2</v>
+      </c>
+      <c r="N24">
+        <v>5.3159999999999998</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>1</v>
+      </c>
+      <c r="B25">
+        <v>11</v>
+      </c>
+      <c r="C25">
+        <v>4</v>
+      </c>
+      <c r="D25">
+        <v>3.0310000000000001</v>
+      </c>
+      <c r="F25" t="s">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>13</v>
+      </c>
+      <c r="H25">
+        <v>4</v>
+      </c>
+      <c r="I25">
+        <v>4.13</v>
+      </c>
+      <c r="K25" t="s">
+        <v>1</v>
+      </c>
+      <c r="L25">
+        <v>15</v>
+      </c>
+      <c r="M25">
+        <v>4</v>
+      </c>
+      <c r="N25">
+        <v>5.4180000000000001</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>1</v>
+      </c>
+      <c r="B26">
+        <v>11</v>
+      </c>
+      <c r="C26">
+        <v>8</v>
+      </c>
+      <c r="D26">
+        <v>3.0470000000000002</v>
+      </c>
+      <c r="F26" t="s">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>13</v>
+      </c>
+      <c r="H26">
+        <v>8</v>
+      </c>
+      <c r="I26">
+        <v>4.1449999999999996</v>
+      </c>
+      <c r="K26" t="s">
+        <v>1</v>
+      </c>
+      <c r="L26">
+        <v>15</v>
+      </c>
+      <c r="M26">
+        <v>8</v>
+      </c>
+      <c r="N26">
+        <v>5.44</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>1</v>
+      </c>
+      <c r="B27">
+        <v>11</v>
+      </c>
+      <c r="C27">
+        <v>16</v>
+      </c>
+      <c r="D27">
+        <v>3.0310000000000001</v>
+      </c>
+      <c r="F27" t="s">
+        <v>1</v>
+      </c>
+      <c r="G27">
+        <v>13</v>
+      </c>
+      <c r="H27">
+        <v>16</v>
+      </c>
+      <c r="I27">
+        <v>4.1289999999999996</v>
+      </c>
+      <c r="K27" t="s">
+        <v>1</v>
+      </c>
+      <c r="L27">
+        <v>15</v>
+      </c>
+      <c r="M27">
+        <v>16</v>
+      </c>
+      <c r="N27">
+        <v>5.407</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>2</v>
+      </c>
+      <c r="B28">
+        <v>11</v>
+      </c>
+      <c r="C28">
+        <v>1</v>
+      </c>
+      <c r="D28">
+        <v>22.879000000000001</v>
+      </c>
+      <c r="F28" t="s">
+        <v>2</v>
+      </c>
+      <c r="G28">
+        <v>13</v>
+      </c>
+      <c r="H28">
+        <v>1</v>
+      </c>
+      <c r="I28">
+        <v>31.446000000000002</v>
+      </c>
+      <c r="K28" t="s">
+        <v>2</v>
+      </c>
+      <c r="L28">
+        <v>15</v>
+      </c>
+      <c r="M28">
+        <v>1</v>
+      </c>
+      <c r="N28">
+        <v>40.326000000000001</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>2</v>
+      </c>
+      <c r="B29">
+        <v>11</v>
+      </c>
+      <c r="C29">
+        <v>2</v>
+      </c>
+      <c r="D29">
+        <v>11.906000000000001</v>
+      </c>
+      <c r="F29" t="s">
+        <v>2</v>
+      </c>
+      <c r="G29">
+        <v>13</v>
+      </c>
+      <c r="H29">
+        <v>2</v>
+      </c>
+      <c r="I29">
+        <v>16.212</v>
+      </c>
+      <c r="K29" t="s">
+        <v>2</v>
+      </c>
+      <c r="L29">
+        <v>15</v>
+      </c>
+      <c r="M29">
+        <v>2</v>
+      </c>
+      <c r="N29">
+        <v>21.536000000000001</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>2</v>
+      </c>
+      <c r="B30">
+        <v>11</v>
+      </c>
+      <c r="C30">
+        <v>4</v>
+      </c>
+      <c r="D30">
+        <v>12.038</v>
+      </c>
+      <c r="F30" t="s">
+        <v>2</v>
+      </c>
+      <c r="G30">
+        <v>13</v>
+      </c>
+      <c r="H30">
+        <v>4</v>
+      </c>
+      <c r="I30">
+        <v>16.382000000000001</v>
+      </c>
+      <c r="K30" t="s">
+        <v>2</v>
+      </c>
+      <c r="L30">
+        <v>15</v>
+      </c>
+      <c r="M30">
+        <v>4</v>
+      </c>
+      <c r="N30">
+        <v>21.52</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>2</v>
+      </c>
+      <c r="B31">
+        <v>11</v>
+      </c>
+      <c r="C31">
+        <v>8</v>
+      </c>
+      <c r="D31">
+        <v>12.21</v>
+      </c>
+      <c r="F31" t="s">
+        <v>2</v>
+      </c>
+      <c r="G31">
+        <v>13</v>
+      </c>
+      <c r="H31">
+        <v>8</v>
+      </c>
+      <c r="I31">
+        <v>16.396000000000001</v>
+      </c>
+      <c r="K31" t="s">
+        <v>2</v>
+      </c>
+      <c r="L31">
+        <v>15</v>
+      </c>
+      <c r="M31">
+        <v>8</v>
+      </c>
+      <c r="N31">
+        <v>21.541</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>2</v>
+      </c>
+      <c r="B32">
+        <v>11</v>
+      </c>
+      <c r="C32">
+        <v>16</v>
+      </c>
+      <c r="D32">
+        <v>11.997999999999999</v>
+      </c>
+      <c r="F32" t="s">
+        <v>2</v>
+      </c>
+      <c r="G32">
+        <v>13</v>
+      </c>
+      <c r="H32">
+        <v>16</v>
+      </c>
+      <c r="I32">
+        <v>16.398</v>
+      </c>
+      <c r="K32" t="s">
+        <v>2</v>
+      </c>
+      <c r="L32">
+        <v>15</v>
+      </c>
+      <c r="M32">
+        <v>16</v>
+      </c>
+      <c r="N32">
+        <v>21.591000000000001</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
@@ -15289,7 +16624,7 @@
   <dimension ref="A1:D35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A31" sqref="A31:D35"/>
+      <selection activeCell="D1" sqref="D1:D35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -15304,8 +16639,8 @@
       <c r="C1">
         <v>1</v>
       </c>
-      <c r="D1" s="1">
-        <v>2364</v>
+      <c r="D1">
+        <v>0.78300000000000003</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -15318,8 +16653,8 @@
       <c r="C2">
         <v>2</v>
       </c>
-      <c r="D2" s="1">
-        <v>1529</v>
+      <c r="D2">
+        <v>0.45800000000000002</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -15332,8 +16667,8 @@
       <c r="C3">
         <v>4</v>
       </c>
-      <c r="D3" s="1">
-        <v>1586</v>
+      <c r="D3">
+        <v>0.44500000000000001</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
@@ -15346,8 +16681,8 @@
       <c r="C4">
         <v>8</v>
       </c>
-      <c r="D4" s="1">
-        <v>1822</v>
+      <c r="D4">
+        <v>0.44800000000000001</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
@@ -15360,8 +16695,8 @@
       <c r="C5">
         <v>16</v>
       </c>
-      <c r="D5" s="1">
-        <v>1750</v>
+      <c r="D5">
+        <v>0.45</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
@@ -15374,8 +16709,8 @@
       <c r="C6">
         <v>1</v>
       </c>
-      <c r="D6" s="1">
-        <v>4095</v>
+      <c r="D6">
+        <v>1.4490000000000001</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
@@ -15388,8 +16723,8 @@
       <c r="C7">
         <v>2</v>
       </c>
-      <c r="D7" s="1">
-        <v>3347</v>
+      <c r="D7">
+        <v>0.83199999999999996</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
@@ -15402,8 +16737,8 @@
       <c r="C8">
         <v>4</v>
       </c>
-      <c r="D8" s="1">
-        <v>3929</v>
+      <c r="D8">
+        <v>0.80800000000000005</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
@@ -15416,8 +16751,8 @@
       <c r="C9">
         <v>8</v>
       </c>
-      <c r="D9" s="1">
-        <v>3997</v>
+      <c r="D9">
+        <v>0.81200000000000006</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
@@ -15430,8 +16765,8 @@
       <c r="C10">
         <v>16</v>
       </c>
-      <c r="D10" s="1">
-        <v>2995</v>
+      <c r="D10">
+        <v>0.82199999999999995</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
@@ -15444,8 +16779,8 @@
       <c r="C11">
         <v>1</v>
       </c>
-      <c r="D11" s="1">
-        <v>8578</v>
+      <c r="D11">
+        <v>2.6739999999999999</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
@@ -15458,8 +16793,8 @@
       <c r="C12">
         <v>2</v>
       </c>
-      <c r="D12" s="1">
-        <v>6047</v>
+      <c r="D12">
+        <v>1.413</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
@@ -15472,8 +16807,8 @@
       <c r="C13">
         <v>4</v>
       </c>
-      <c r="D13" s="1">
-        <v>5595</v>
+      <c r="D13">
+        <v>1.43</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
@@ -15486,8 +16821,8 @@
       <c r="C14">
         <v>8</v>
       </c>
-      <c r="D14" s="1">
-        <v>6674</v>
+      <c r="D14">
+        <v>1.39</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
@@ -15500,8 +16835,8 @@
       <c r="C15">
         <v>16</v>
       </c>
-      <c r="D15" s="1">
-        <v>5029</v>
+      <c r="D15">
+        <v>1.3859999999999999</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
@@ -15514,8 +16849,8 @@
       <c r="C16">
         <v>1</v>
       </c>
-      <c r="D16" s="1">
-        <v>13910</v>
+      <c r="D16">
+        <v>4.0549999999999997</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
@@ -15528,8 +16863,8 @@
       <c r="C17">
         <v>2</v>
       </c>
-      <c r="D17" s="1">
-        <v>9258</v>
+      <c r="D17">
+        <v>2.1349999999999998</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
@@ -15542,8 +16877,8 @@
       <c r="C18">
         <v>4</v>
       </c>
-      <c r="D18" s="1">
-        <v>7820</v>
+      <c r="D18">
+        <v>2.1230000000000002</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
@@ -15556,8 +16891,8 @@
       <c r="C19">
         <v>8</v>
       </c>
-      <c r="D19" s="1">
-        <v>8508</v>
+      <c r="D19">
+        <v>2.1349999999999998</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.2">
@@ -15570,8 +16905,8 @@
       <c r="C20">
         <v>16</v>
       </c>
-      <c r="D20" s="1">
-        <v>7947</v>
+      <c r="D20">
+        <v>2.1190000000000002</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
@@ -15584,8 +16919,8 @@
       <c r="C21">
         <v>1</v>
       </c>
-      <c r="D21" s="1">
-        <v>20449</v>
+      <c r="D21">
+        <v>5.9279999999999999</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.2">
@@ -15598,8 +16933,8 @@
       <c r="C22">
         <v>2</v>
       </c>
-      <c r="D22" s="1">
-        <v>29693</v>
+      <c r="D22">
+        <v>3.0329999999999999</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.2">
@@ -15612,8 +16947,8 @@
       <c r="C23">
         <v>4</v>
       </c>
-      <c r="D23" s="1">
-        <v>16045</v>
+      <c r="D23">
+        <v>3.0310000000000001</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.2">
@@ -15626,8 +16961,8 @@
       <c r="C24">
         <v>8</v>
       </c>
-      <c r="D24" s="1">
-        <v>13216</v>
+      <c r="D24">
+        <v>3.0470000000000002</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.2">
@@ -15640,8 +16975,8 @@
       <c r="C25">
         <v>16</v>
       </c>
-      <c r="D25" s="1">
-        <v>11301</v>
+      <c r="D25">
+        <v>3.0310000000000001</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.2">
@@ -15654,8 +16989,8 @@
       <c r="C26">
         <v>1</v>
       </c>
-      <c r="D26" s="1">
-        <v>34015</v>
+      <c r="D26">
+        <v>7.8570000000000002</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.2">
@@ -15668,8 +17003,8 @@
       <c r="C27">
         <v>2</v>
       </c>
-      <c r="D27" s="1">
-        <v>25682</v>
+      <c r="D27">
+        <v>4.0949999999999998</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.2">
@@ -15682,8 +17017,8 @@
       <c r="C28">
         <v>4</v>
       </c>
-      <c r="D28" s="1">
-        <v>20574</v>
+      <c r="D28">
+        <v>4.13</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.2">
@@ -15696,8 +17031,8 @@
       <c r="C29">
         <v>8</v>
       </c>
-      <c r="D29" s="1">
-        <v>22566</v>
+      <c r="D29">
+        <v>4.1449999999999996</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.2">
@@ -15710,8 +17045,8 @@
       <c r="C30">
         <v>16</v>
       </c>
-      <c r="D30" s="1">
-        <v>16025</v>
+      <c r="D30">
+        <v>4.1289999999999996</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.2">
@@ -15724,8 +17059,8 @@
       <c r="C31">
         <v>1</v>
       </c>
-      <c r="D31" s="1">
-        <v>44475</v>
+      <c r="D31">
+        <v>10.220000000000001</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.2">
@@ -15738,8 +17073,8 @@
       <c r="C32">
         <v>2</v>
       </c>
-      <c r="D32" s="1">
-        <v>32204</v>
+      <c r="D32">
+        <v>5.3159999999999998</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.2">
@@ -15752,8 +17087,8 @@
       <c r="C33">
         <v>4</v>
       </c>
-      <c r="D33" s="1">
-        <v>25467</v>
+      <c r="D33">
+        <v>5.4180000000000001</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.2">
@@ -15766,8 +17101,8 @@
       <c r="C34">
         <v>8</v>
       </c>
-      <c r="D34" s="1">
-        <v>24222</v>
+      <c r="D34">
+        <v>5.44</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.2">
@@ -15780,8 +17115,8 @@
       <c r="C35">
         <v>16</v>
       </c>
-      <c r="D35" s="1">
-        <v>20748</v>
+      <c r="D35">
+        <v>5.407</v>
       </c>
     </row>
   </sheetData>
@@ -15795,7 +17130,7 @@
   <dimension ref="A1:D35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J37" sqref="J37"/>
+      <selection activeCell="P43" sqref="P43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -15810,8 +17145,8 @@
       <c r="C1">
         <v>1</v>
       </c>
-      <c r="D1" s="1">
-        <v>34274</v>
+      <c r="D1">
+        <v>3.0209999999999999</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -15824,8 +17159,8 @@
       <c r="C2">
         <v>2</v>
       </c>
-      <c r="D2" s="1">
-        <v>8462</v>
+      <c r="D2">
+        <v>1.66</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -15838,8 +17173,8 @@
       <c r="C3">
         <v>4</v>
       </c>
-      <c r="D3" s="1">
-        <v>7150</v>
+      <c r="D3">
+        <v>1.573</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
@@ -15852,8 +17187,8 @@
       <c r="C4">
         <v>8</v>
       </c>
-      <c r="D4" s="1">
-        <v>7257</v>
+      <c r="D4">
+        <v>1.571</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
@@ -15866,8 +17201,8 @@
       <c r="C5">
         <v>16</v>
       </c>
-      <c r="D5" s="1">
-        <v>6409</v>
+      <c r="D5">
+        <v>1.607</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
@@ -15880,8 +17215,8 @@
       <c r="C6">
         <v>1</v>
       </c>
-      <c r="D6" s="1">
-        <v>18945</v>
+      <c r="D6">
+        <v>5.6189999999999998</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
@@ -15894,8 +17229,8 @@
       <c r="C7">
         <v>2</v>
       </c>
-      <c r="D7" s="1">
-        <v>13533</v>
+      <c r="D7">
+        <v>3.05</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
@@ -15908,8 +17243,8 @@
       <c r="C8">
         <v>4</v>
       </c>
-      <c r="D8" s="1">
-        <v>14095</v>
+      <c r="D8">
+        <v>3.0230000000000001</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
@@ -15922,8 +17257,8 @@
       <c r="C9">
         <v>8</v>
       </c>
-      <c r="D9" s="1">
-        <v>14642</v>
+      <c r="D9">
+        <v>3.0470000000000002</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
@@ -15936,8 +17271,8 @@
       <c r="C10">
         <v>16</v>
       </c>
-      <c r="D10" s="1">
-        <v>13236</v>
+      <c r="D10">
+        <v>3.0339999999999998</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
@@ -15950,8 +17285,8 @@
       <c r="C11">
         <v>1</v>
       </c>
-      <c r="D11" s="1">
-        <v>35406</v>
+      <c r="D11">
+        <v>10.39</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
@@ -15964,8 +17299,8 @@
       <c r="C12">
         <v>2</v>
       </c>
-      <c r="D12" s="1">
-        <v>24113</v>
+      <c r="D12">
+        <v>5.5110000000000001</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
@@ -15978,8 +17313,8 @@
       <c r="C13">
         <v>4</v>
       </c>
-      <c r="D13" s="1">
-        <v>21810</v>
+      <c r="D13">
+        <v>5.36</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
@@ -15992,8 +17327,8 @@
       <c r="C14">
         <v>8</v>
       </c>
-      <c r="D14" s="1">
-        <v>23893</v>
+      <c r="D14">
+        <v>5.35</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
@@ -16006,8 +17341,8 @@
       <c r="C15">
         <v>16</v>
       </c>
-      <c r="D15" s="1">
-        <v>20440</v>
+      <c r="D15">
+        <v>5.3819999999999997</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
@@ -16020,8 +17355,8 @@
       <c r="C16">
         <v>1</v>
       </c>
-      <c r="D16" s="1">
-        <v>59367</v>
+      <c r="D16">
+        <v>16.045999999999999</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
@@ -16034,8 +17369,8 @@
       <c r="C17">
         <v>2</v>
       </c>
-      <c r="D17" s="1">
-        <v>62137</v>
+      <c r="D17">
+        <v>8.3520000000000003</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
@@ -16048,8 +17383,8 @@
       <c r="C18">
         <v>4</v>
       </c>
-      <c r="D18" s="1">
-        <v>37646</v>
+      <c r="D18">
+        <v>8.3350000000000009</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
@@ -16062,8 +17397,8 @@
       <c r="C19">
         <v>8</v>
       </c>
-      <c r="D19" s="1">
-        <v>37268</v>
+      <c r="D19">
+        <v>8.2940000000000005</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.2">
@@ -16076,8 +17411,8 @@
       <c r="C20">
         <v>16</v>
       </c>
-      <c r="D20" s="1">
-        <v>30765</v>
+      <c r="D20">
+        <v>8.3279999999999994</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
@@ -16090,8 +17425,8 @@
       <c r="C21">
         <v>1</v>
       </c>
-      <c r="D21" s="1">
-        <v>82582</v>
+      <c r="D21">
+        <v>22.879000000000001</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.2">
@@ -16104,8 +17439,8 @@
       <c r="C22">
         <v>2</v>
       </c>
-      <c r="D22" s="1">
-        <v>53041</v>
+      <c r="D22">
+        <v>11.906000000000001</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.2">
@@ -16118,8 +17453,8 @@
       <c r="C23">
         <v>4</v>
       </c>
-      <c r="D23" s="1">
-        <v>66275</v>
+      <c r="D23">
+        <v>12.038</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.2">
@@ -16132,8 +17467,8 @@
       <c r="C24">
         <v>8</v>
       </c>
-      <c r="D24" s="1">
-        <v>63838</v>
+      <c r="D24">
+        <v>12.21</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.2">
@@ -16146,8 +17481,8 @@
       <c r="C25">
         <v>16</v>
       </c>
-      <c r="D25" s="1">
-        <v>51754</v>
+      <c r="D25">
+        <v>11.997999999999999</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.2">
@@ -16160,8 +17495,8 @@
       <c r="C26">
         <v>1</v>
       </c>
-      <c r="D26" s="1">
-        <v>108870</v>
+      <c r="D26">
+        <v>31.446000000000002</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.2">
@@ -16174,8 +17509,8 @@
       <c r="C27">
         <v>2</v>
       </c>
-      <c r="D27" s="1">
-        <v>95471</v>
+      <c r="D27">
+        <v>16.212</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.2">
@@ -16188,8 +17523,8 @@
       <c r="C28">
         <v>4</v>
       </c>
-      <c r="D28" s="1">
-        <v>39292</v>
+      <c r="D28">
+        <v>16.382000000000001</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.2">
@@ -16202,8 +17537,8 @@
       <c r="C29">
         <v>8</v>
       </c>
-      <c r="D29" s="1">
-        <v>55387</v>
+      <c r="D29">
+        <v>16.396000000000001</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.2">
@@ -16216,8 +17551,8 @@
       <c r="C30">
         <v>16</v>
       </c>
-      <c r="D30" s="1">
-        <v>55330</v>
+      <c r="D30">
+        <v>16.398</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.2">
@@ -16230,8 +17565,8 @@
       <c r="C31">
         <v>1</v>
       </c>
-      <c r="D31" s="1">
-        <v>167208</v>
+      <c r="D31">
+        <v>40.326000000000001</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.2">
@@ -16244,8 +17579,8 @@
       <c r="C32">
         <v>2</v>
       </c>
-      <c r="D32" s="1">
-        <v>174836</v>
+      <c r="D32">
+        <v>21.536000000000001</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.2">
@@ -16258,8 +17593,8 @@
       <c r="C33">
         <v>4</v>
       </c>
-      <c r="D33" s="1">
-        <v>110593</v>
+      <c r="D33">
+        <v>21.52</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.2">
@@ -16272,8 +17607,8 @@
       <c r="C34">
         <v>8</v>
       </c>
-      <c r="D34" s="1">
-        <v>118230</v>
+      <c r="D34">
+        <v>21.541</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.2">
@@ -16286,8 +17621,8 @@
       <c r="C35">
         <v>16</v>
       </c>
-      <c r="D35" s="1">
-        <v>87911</v>
+      <c r="D35">
+        <v>21.591000000000001</v>
       </c>
     </row>
   </sheetData>
@@ -16301,7 +17636,7 @@
   <dimension ref="A1:D65"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K38" sqref="K38"/>
+      <selection activeCell="C1" sqref="C1:C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -16316,8 +17651,8 @@
       <c r="B1">
         <v>1</v>
       </c>
-      <c r="C1" s="1">
-        <v>3881</v>
+      <c r="C1">
+        <v>0.66200000000000003</v>
       </c>
       <c r="D1">
         <f>$C$1/C1</f>
@@ -16331,12 +17666,12 @@
       <c r="B2">
         <v>2</v>
       </c>
-      <c r="C2" s="1">
-        <v>2776</v>
+      <c r="C2">
+        <v>0.40500000000000003</v>
       </c>
       <c r="D2">
-        <f t="shared" ref="D2:D14" si="0">$C$1/C2</f>
-        <v>1.3980547550432276</v>
+        <f t="shared" ref="D2:D5" si="0">$C$1/C2</f>
+        <v>1.634567901234568</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -16346,12 +17681,12 @@
       <c r="B3">
         <v>4</v>
       </c>
-      <c r="C3" s="1">
-        <v>2493</v>
+      <c r="C3">
+        <v>0.34599999999999997</v>
       </c>
       <c r="D3">
         <f t="shared" si="0"/>
-        <v>1.5567589249899718</v>
+        <v>1.9132947976878616</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
@@ -16361,12 +17696,12 @@
       <c r="B4">
         <v>8</v>
       </c>
-      <c r="C4" s="1">
-        <v>2407</v>
+      <c r="C4">
+        <v>0.27300000000000002</v>
       </c>
       <c r="D4">
         <f t="shared" si="0"/>
-        <v>1.612380556709597</v>
+        <v>2.4249084249084247</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
@@ -16376,12 +17711,12 @@
       <c r="B5">
         <v>16</v>
       </c>
-      <c r="C5" s="1">
-        <v>2421</v>
+      <c r="C5">
+        <v>0.27600000000000002</v>
       </c>
       <c r="D5">
         <f t="shared" si="0"/>
-        <v>1.6030565881866996</v>
+        <v>2.3985507246376812</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
@@ -16391,8 +17726,8 @@
       <c r="B6">
         <v>1</v>
       </c>
-      <c r="C6" s="1">
-        <v>2364</v>
+      <c r="C6">
+        <v>0.78300000000000003</v>
       </c>
       <c r="D6">
         <f>$C$6/C6</f>
@@ -16406,12 +17741,12 @@
       <c r="B7">
         <v>2</v>
       </c>
-      <c r="C7" s="1">
-        <v>1629</v>
+      <c r="C7">
+        <v>0.45800000000000002</v>
       </c>
       <c r="D7">
-        <f t="shared" ref="D7:D11" si="1">$C$6/C7</f>
-        <v>1.4511970534069982</v>
+        <f t="shared" ref="D7:D10" si="1">$C$6/C7</f>
+        <v>1.7096069868995634</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
@@ -16421,12 +17756,12 @@
       <c r="B8">
         <v>4</v>
       </c>
-      <c r="C8" s="1">
-        <v>1586</v>
+      <c r="C8">
+        <v>0.44500000000000001</v>
       </c>
       <c r="D8">
         <f t="shared" si="1"/>
-        <v>1.4905422446406054</v>
+        <v>1.7595505617977529</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
@@ -16436,12 +17771,12 @@
       <c r="B9">
         <v>8</v>
       </c>
-      <c r="C9" s="1">
-        <v>1422</v>
+      <c r="C9">
+        <v>0.44800000000000001</v>
       </c>
       <c r="D9">
         <f t="shared" si="1"/>
-        <v>1.6624472573839661</v>
+        <v>1.7477678571428572</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
@@ -16451,12 +17786,12 @@
       <c r="B10">
         <v>16</v>
       </c>
-      <c r="C10" s="1">
-        <v>1350</v>
+      <c r="C10">
+        <v>0.45</v>
       </c>
       <c r="D10">
         <f t="shared" si="1"/>
-        <v>1.7511111111111111</v>
+        <v>1.74</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
@@ -16466,8 +17801,8 @@
       <c r="B11">
         <v>1</v>
       </c>
-      <c r="C11" s="1">
-        <v>34274</v>
+      <c r="C11">
+        <v>3.0209999999999999</v>
       </c>
       <c r="D11">
         <f>$C$11/C11</f>
@@ -16481,12 +17816,12 @@
       <c r="B12">
         <v>2</v>
       </c>
-      <c r="C12" s="1">
-        <v>8462</v>
+      <c r="C12">
+        <v>1.66</v>
       </c>
       <c r="D12">
         <f t="shared" ref="D12:D15" si="2">$C$11/C12</f>
-        <v>4.0503427085795316</v>
+        <v>1.8198795180722891</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
@@ -16496,12 +17831,12 @@
       <c r="B13">
         <v>4</v>
       </c>
-      <c r="C13" s="1">
-        <v>7150</v>
+      <c r="C13">
+        <v>1.573</v>
       </c>
       <c r="D13">
         <f t="shared" si="2"/>
-        <v>4.7935664335664336</v>
+        <v>1.9205340114431024</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
@@ -16511,12 +17846,12 @@
       <c r="B14">
         <v>8</v>
       </c>
-      <c r="C14" s="1">
-        <v>7057</v>
+      <c r="C14">
+        <v>1.571</v>
       </c>
       <c r="D14">
         <f t="shared" si="2"/>
-        <v>4.8567379906475843</v>
+        <v>1.9229789942711648</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
@@ -16526,12 +17861,12 @@
       <c r="B15">
         <v>16</v>
       </c>
-      <c r="C15" s="1">
-        <v>6409</v>
+      <c r="C15">
+        <v>1.607</v>
       </c>
       <c r="D15">
         <f t="shared" si="2"/>
-        <v>5.3477921672647835</v>
+        <v>1.879900435594275</v>
       </c>
     </row>
     <row r="52" spans="4:4" x14ac:dyDescent="0.2">
@@ -16587,7 +17922,7 @@
   <dimension ref="A1:D15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="P20" sqref="P20"/>
+      <selection activeCell="C1" sqref="C1:C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -16599,8 +17934,8 @@
       <c r="B1">
         <v>1</v>
       </c>
-      <c r="C1" s="1">
-        <v>4085</v>
+      <c r="C1">
+        <v>1.0049999999999999</v>
       </c>
       <c r="D1">
         <f>$C$1/C1</f>
@@ -16614,12 +17949,12 @@
       <c r="B2">
         <v>2</v>
       </c>
-      <c r="C2" s="1">
-        <v>2583</v>
+      <c r="C2">
+        <v>0.72399999999999998</v>
       </c>
       <c r="D2">
-        <f t="shared" ref="D2:D6" si="0">$C$1/C2</f>
-        <v>1.5814943863724351</v>
+        <f t="shared" ref="D2:D5" si="0">$C$1/C2</f>
+        <v>1.3881215469613259</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -16629,12 +17964,12 @@
       <c r="B3">
         <v>4</v>
       </c>
-      <c r="C3" s="1">
-        <v>1584</v>
+      <c r="C3">
+        <v>0.55400000000000005</v>
       </c>
       <c r="D3">
         <f t="shared" si="0"/>
-        <v>2.5789141414141414</v>
+        <v>1.8140794223826711</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
@@ -16644,12 +17979,12 @@
       <c r="B4">
         <v>8</v>
       </c>
-      <c r="C4" s="1">
-        <v>1327</v>
+      <c r="C4">
+        <v>0.499</v>
       </c>
       <c r="D4">
         <f t="shared" si="0"/>
-        <v>3.0783722682743031</v>
+        <v>2.0140280561122244</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
@@ -16659,12 +17994,12 @@
       <c r="B5">
         <v>16</v>
       </c>
-      <c r="C5" s="1">
-        <v>1339</v>
+      <c r="C5">
+        <v>0.47899999999999998</v>
       </c>
       <c r="D5">
         <f t="shared" si="0"/>
-        <v>3.0507841672890215</v>
+        <v>2.0981210855949892</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
@@ -16674,8 +18009,8 @@
       <c r="B6">
         <v>1</v>
       </c>
-      <c r="C6" s="1">
-        <v>4095</v>
+      <c r="C6">
+        <v>1.4490000000000001</v>
       </c>
       <c r="D6">
         <f>$C$6/C6</f>
@@ -16689,12 +18024,12 @@
       <c r="B7">
         <v>2</v>
       </c>
-      <c r="C7" s="1">
-        <v>3947</v>
+      <c r="C7">
+        <v>0.83199999999999996</v>
       </c>
       <c r="D7">
-        <f t="shared" ref="D7:D11" si="1">$C$6/C7</f>
-        <v>1.0374968330377501</v>
+        <f t="shared" ref="D7:D9" si="1">$C$6/C7</f>
+        <v>1.7415865384615385</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
@@ -16704,12 +18039,12 @@
       <c r="B8">
         <v>4</v>
       </c>
-      <c r="C8" s="1">
-        <v>3829</v>
+      <c r="C8">
+        <v>0.80800000000000005</v>
       </c>
       <c r="D8">
         <f t="shared" si="1"/>
-        <v>1.0694698354661791</v>
+        <v>1.7933168316831682</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
@@ -16719,12 +18054,12 @@
       <c r="B9">
         <v>8</v>
       </c>
-      <c r="C9" s="1">
-        <v>3697</v>
+      <c r="C9">
+        <v>0.81200000000000006</v>
       </c>
       <c r="D9">
         <f t="shared" si="1"/>
-        <v>1.1076548552880714</v>
+        <v>1.7844827586206897</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
@@ -16734,12 +18069,12 @@
       <c r="B10">
         <v>16</v>
       </c>
-      <c r="C10" s="1">
-        <v>2995</v>
+      <c r="C10">
+        <v>0.82199999999999995</v>
       </c>
       <c r="D10">
         <f>$C$6/C10</f>
-        <v>1.3672787979966612</v>
+        <v>1.7627737226277373</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
@@ -16749,8 +18084,8 @@
       <c r="B11">
         <v>1</v>
       </c>
-      <c r="C11" s="1">
-        <v>18945</v>
+      <c r="C11">
+        <v>5.6189999999999998</v>
       </c>
       <c r="D11">
         <f>$C$11/C11</f>
@@ -16764,12 +18099,12 @@
       <c r="B12">
         <v>2</v>
       </c>
-      <c r="C12" s="1">
-        <v>15533</v>
+      <c r="C12">
+        <v>3.05</v>
       </c>
       <c r="D12">
         <f t="shared" ref="D12:D15" si="2">$C$11/C12</f>
-        <v>1.2196613661237365</v>
+        <v>1.8422950819672133</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
@@ -16779,12 +18114,12 @@
       <c r="B13">
         <v>4</v>
       </c>
-      <c r="C13" s="1">
-        <v>14095</v>
+      <c r="C13">
+        <v>3.0230000000000001</v>
       </c>
       <c r="D13">
         <f t="shared" si="2"/>
-        <v>1.3440936502305783</v>
+        <v>1.8587495865034731</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
@@ -16794,12 +18129,12 @@
       <c r="B14">
         <v>8</v>
       </c>
-      <c r="C14" s="1">
-        <v>14642</v>
+      <c r="C14">
+        <v>3.0470000000000002</v>
       </c>
       <c r="D14">
         <f t="shared" si="2"/>
-        <v>1.2938806174019943</v>
+        <v>1.8441089596324252</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
@@ -16809,12 +18144,12 @@
       <c r="B15">
         <v>16</v>
       </c>
-      <c r="C15" s="1">
-        <v>13236</v>
+      <c r="C15">
+        <v>3.0339999999999998</v>
       </c>
       <c r="D15">
         <f t="shared" si="2"/>
-        <v>1.4313236627379873</v>
+        <v>1.8520105471324984</v>
       </c>
     </row>
   </sheetData>
@@ -16828,7 +18163,7 @@
   <dimension ref="A1:D15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="R18" sqref="R18"/>
+      <selection activeCell="C1" sqref="C1:C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -16840,8 +18175,8 @@
       <c r="B1">
         <v>1</v>
       </c>
-      <c r="C1" s="1">
-        <v>4222</v>
+      <c r="C1">
+        <v>1.958</v>
       </c>
       <c r="D1">
         <f>$C$1/C1</f>
@@ -16855,12 +18190,12 @@
       <c r="B2">
         <v>2</v>
       </c>
-      <c r="C2" s="1">
-        <v>2669</v>
+      <c r="C2">
+        <v>1.1919999999999999</v>
       </c>
       <c r="D2">
-        <f t="shared" ref="D2:D6" si="0">$C$1/C2</f>
-        <v>1.5818658673660546</v>
+        <f t="shared" ref="D2:D5" si="0">$C$1/C2</f>
+        <v>1.6426174496644295</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -16870,12 +18205,12 @@
       <c r="B3">
         <v>4</v>
       </c>
-      <c r="C3" s="1">
-        <v>2459</v>
+      <c r="C3">
+        <v>1.0409999999999999</v>
       </c>
       <c r="D3">
         <f t="shared" si="0"/>
-        <v>1.716958113054087</v>
+        <v>1.8808837656099906</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
@@ -16885,12 +18220,12 @@
       <c r="B4">
         <v>8</v>
       </c>
-      <c r="C4" s="1">
-        <v>2635</v>
+      <c r="C4">
+        <v>0.83199999999999996</v>
       </c>
       <c r="D4">
         <f t="shared" si="0"/>
-        <v>1.6022770398481974</v>
+        <v>2.3533653846153846</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
@@ -16900,12 +18235,12 @@
       <c r="B5">
         <v>16</v>
       </c>
-      <c r="C5" s="1">
-        <v>2190</v>
+      <c r="C5">
+        <v>0.82599999999999996</v>
       </c>
       <c r="D5">
         <f t="shared" si="0"/>
-        <v>1.9278538812785389</v>
+        <v>2.3704600484261502</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
@@ -16915,8 +18250,8 @@
       <c r="B6">
         <v>1</v>
       </c>
-      <c r="C6" s="1">
-        <v>8578</v>
+      <c r="C6">
+        <v>2.6739999999999999</v>
       </c>
       <c r="D6">
         <f>$C$6/C6</f>
@@ -16930,12 +18265,12 @@
       <c r="B7">
         <v>2</v>
       </c>
-      <c r="C7" s="1">
-        <v>6047</v>
+      <c r="C7">
+        <v>1.413</v>
       </c>
       <c r="D7">
-        <f t="shared" ref="D7:D11" si="1">$C$6/C7</f>
-        <v>1.4185546552009261</v>
+        <f t="shared" ref="D7:D10" si="1">$C$6/C7</f>
+        <v>1.8924274593064401</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
@@ -16945,12 +18280,12 @@
       <c r="B8">
         <v>4</v>
       </c>
-      <c r="C8" s="1">
-        <v>5595</v>
+      <c r="C8">
+        <v>1.43</v>
       </c>
       <c r="D8">
         <f t="shared" si="1"/>
-        <v>1.5331546023235032</v>
+        <v>1.86993006993007</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
@@ -16960,12 +18295,12 @@
       <c r="B9">
         <v>8</v>
       </c>
-      <c r="C9" s="1">
-        <v>6674</v>
+      <c r="C9">
+        <v>1.39</v>
       </c>
       <c r="D9">
         <f t="shared" si="1"/>
-        <v>1.285286185196284</v>
+        <v>1.9237410071942447</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
@@ -16975,12 +18310,12 @@
       <c r="B10">
         <v>16</v>
       </c>
-      <c r="C10" s="1">
-        <v>5029</v>
+      <c r="C10">
+        <v>1.3859999999999999</v>
       </c>
       <c r="D10">
         <f t="shared" si="1"/>
-        <v>1.7057068999801153</v>
+        <v>1.9292929292929293</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
@@ -16990,8 +18325,8 @@
       <c r="B11">
         <v>1</v>
       </c>
-      <c r="C11" s="1">
-        <v>35406</v>
+      <c r="C11">
+        <v>10.39</v>
       </c>
       <c r="D11">
         <f>$C$11/C11</f>
@@ -17005,12 +18340,12 @@
       <c r="B12">
         <v>2</v>
       </c>
-      <c r="C12" s="1">
-        <v>24113</v>
+      <c r="C12">
+        <v>5.5110000000000001</v>
       </c>
       <c r="D12">
         <f t="shared" ref="D12:D15" si="2">$C$11/C12</f>
-        <v>1.4683365819267615</v>
+        <v>1.8853202685538015</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
@@ -17020,12 +18355,12 @@
       <c r="B13">
         <v>4</v>
       </c>
-      <c r="C13" s="1">
-        <v>21810</v>
+      <c r="C13">
+        <v>5.36</v>
       </c>
       <c r="D13">
         <f t="shared" si="2"/>
-        <v>1.6233837689133426</v>
+        <v>1.9384328358208955</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
@@ -17035,12 +18370,12 @@
       <c r="B14">
         <v>8</v>
       </c>
-      <c r="C14" s="1">
-        <v>23893</v>
+      <c r="C14">
+        <v>5.35</v>
       </c>
       <c r="D14">
         <f t="shared" si="2"/>
-        <v>1.4818566107228059</v>
+        <v>1.9420560747663553</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
@@ -17050,12 +18385,12 @@
       <c r="B15">
         <v>16</v>
       </c>
-      <c r="C15" s="1">
-        <v>20440</v>
+      <c r="C15">
+        <v>5.3819999999999997</v>
       </c>
       <c r="D15">
         <f t="shared" si="2"/>
-        <v>1.7321917808219178</v>
+        <v>1.9305091044221481</v>
       </c>
     </row>
   </sheetData>
@@ -17069,7 +18404,7 @@
   <dimension ref="A1:D15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="N30" sqref="N30"/>
+      <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -17081,8 +18416,8 @@
       <c r="B1">
         <v>1</v>
       </c>
-      <c r="C1" s="1">
-        <v>5416</v>
+      <c r="C1">
+        <v>2.5819999999999999</v>
       </c>
       <c r="D1">
         <f>$C$1/C1</f>
@@ -17096,12 +18431,12 @@
       <c r="B2" s="2">
         <v>2</v>
       </c>
-      <c r="C2" s="3">
-        <v>4121</v>
+      <c r="C2">
+        <v>1.3460000000000001</v>
       </c>
       <c r="D2">
         <f t="shared" ref="D2:D5" si="0">$C$1/C2</f>
-        <v>1.3142441155059452</v>
+        <v>1.9182763744427933</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -17111,12 +18446,12 @@
       <c r="B3" s="2">
         <v>4</v>
       </c>
-      <c r="C3" s="3">
-        <v>4006</v>
+      <c r="C3">
+        <v>0.98299999999999998</v>
       </c>
       <c r="D3">
         <f t="shared" si="0"/>
-        <v>1.3519720419370944</v>
+        <v>2.6266531027466935</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
@@ -17126,12 +18461,12 @@
       <c r="B4" s="2">
         <v>8</v>
       </c>
-      <c r="C4" s="3">
-        <v>3980</v>
+      <c r="C4">
+        <v>0.997</v>
       </c>
       <c r="D4">
         <f t="shared" si="0"/>
-        <v>1.3608040201005025</v>
+        <v>2.5897693079237714</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
@@ -17141,12 +18476,12 @@
       <c r="B5" s="2">
         <v>16</v>
       </c>
-      <c r="C5" s="3">
-        <v>3593</v>
+      <c r="C5">
+        <v>0.97899999999999998</v>
       </c>
       <c r="D5">
         <f t="shared" si="0"/>
-        <v>1.5073754522682994</v>
+        <v>2.6373850868232891</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
@@ -17156,8 +18491,8 @@
       <c r="B6" s="2">
         <v>1</v>
       </c>
-      <c r="C6" s="3">
-        <v>13910</v>
+      <c r="C6">
+        <v>4.0549999999999997</v>
       </c>
       <c r="D6">
         <f>$C$6/C6</f>
@@ -17171,12 +18506,12 @@
       <c r="B7" s="2">
         <v>2</v>
       </c>
-      <c r="C7" s="3">
-        <v>9258</v>
+      <c r="C7">
+        <v>2.1349999999999998</v>
       </c>
       <c r="D7">
-        <f t="shared" ref="D7:D11" si="1">$C$6/C7</f>
-        <v>1.5024843378699504</v>
+        <f t="shared" ref="D7:D10" si="1">$C$6/C7</f>
+        <v>1.8992974238875879</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
@@ -17186,12 +18521,12 @@
       <c r="B8" s="2">
         <v>4</v>
       </c>
-      <c r="C8" s="3">
-        <v>7820</v>
+      <c r="C8">
+        <v>2.1230000000000002</v>
       </c>
       <c r="D8">
         <f t="shared" si="1"/>
-        <v>1.7787723785166241</v>
+        <v>1.9100329722091376</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
@@ -17201,12 +18536,12 @@
       <c r="B9" s="2">
         <v>8</v>
       </c>
-      <c r="C9" s="3">
-        <v>7508</v>
+      <c r="C9">
+        <v>2.1349999999999998</v>
       </c>
       <c r="D9">
         <f t="shared" si="1"/>
-        <v>1.8526904635055941</v>
+        <v>1.8992974238875879</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
@@ -17216,12 +18551,12 @@
       <c r="B10" s="2">
         <v>16</v>
       </c>
-      <c r="C10" s="3">
-        <v>6947</v>
+      <c r="C10">
+        <v>2.1190000000000002</v>
       </c>
       <c r="D10">
         <f t="shared" si="1"/>
-        <v>2.002303152439902</v>
+        <v>1.913638508730533</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
@@ -17231,8 +18566,8 @@
       <c r="B11" s="2">
         <v>1</v>
       </c>
-      <c r="C11" s="3">
-        <v>59367</v>
+      <c r="C11">
+        <v>16.045999999999999</v>
       </c>
       <c r="D11">
         <f>$C$11/C11</f>
@@ -17246,12 +18581,12 @@
       <c r="B12" s="2">
         <v>2</v>
       </c>
-      <c r="C12" s="3">
-        <v>62137</v>
+      <c r="C12">
+        <v>8.3520000000000003</v>
       </c>
       <c r="D12">
         <f t="shared" ref="D12:D15" si="2">$C$11/C12</f>
-        <v>0.95542108566554551</v>
+        <v>1.9212164750957852</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
@@ -17261,12 +18596,12 @@
       <c r="B13" s="2">
         <v>4</v>
       </c>
-      <c r="C13" s="3">
-        <v>37646</v>
+      <c r="C13">
+        <v>8.3350000000000009</v>
       </c>
       <c r="D13">
         <f t="shared" si="2"/>
-        <v>1.5769802900706582</v>
+        <v>1.9251349730053986</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
@@ -17276,12 +18611,12 @@
       <c r="B14" s="2">
         <v>8</v>
       </c>
-      <c r="C14" s="3">
-        <v>37268</v>
+      <c r="C14">
+        <v>8.2940000000000005</v>
       </c>
       <c r="D14">
         <f t="shared" si="2"/>
-        <v>1.5929752066115703</v>
+        <v>1.9346515553412102</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
@@ -17291,12 +18626,12 @@
       <c r="B15" s="2">
         <v>16</v>
       </c>
-      <c r="C15" s="3">
-        <v>30765</v>
+      <c r="C15">
+        <v>8.3279999999999994</v>
       </c>
       <c r="D15">
         <f t="shared" si="2"/>
-        <v>1.9296928327645051</v>
+        <v>1.9267531219980789</v>
       </c>
     </row>
   </sheetData>
@@ -17310,7 +18645,7 @@
   <dimension ref="A1:D15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="Q26" sqref="Q26"/>
+      <selection activeCell="C1" sqref="C1:C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -17322,8 +18657,8 @@
       <c r="B1">
         <v>1</v>
       </c>
-      <c r="C1" s="1">
-        <v>10522</v>
+      <c r="C1">
+        <v>2.613</v>
       </c>
       <c r="D1">
         <f>$C$1/C1</f>
@@ -17337,12 +18672,12 @@
       <c r="B2">
         <v>2</v>
       </c>
-      <c r="C2" s="1">
-        <v>6833</v>
+      <c r="C2">
+        <v>1.371</v>
       </c>
       <c r="D2">
-        <f t="shared" ref="D2:D6" si="0">$C$1/C2</f>
-        <v>1.5398799941460559</v>
+        <f t="shared" ref="D2:D5" si="0">$C$1/C2</f>
+        <v>1.9059080962800876</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -17352,12 +18687,12 @@
       <c r="B3">
         <v>4</v>
       </c>
-      <c r="C3" s="1">
-        <v>5653</v>
+      <c r="C3">
+        <v>1.377</v>
       </c>
       <c r="D3">
         <f t="shared" si="0"/>
-        <v>1.861312577392535</v>
+        <v>1.89760348583878</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
@@ -17367,12 +18702,12 @@
       <c r="B4">
         <v>8</v>
       </c>
-      <c r="C4" s="1">
-        <v>5407</v>
+      <c r="C4">
+        <v>1.4019999999999999</v>
       </c>
       <c r="D4">
         <f t="shared" si="0"/>
-        <v>1.9459959312002959</v>
+        <v>1.8637660485021399</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
@@ -17382,12 +18717,12 @@
       <c r="B5">
         <v>16</v>
       </c>
-      <c r="C5" s="1">
-        <v>4768</v>
+      <c r="C5">
+        <v>1.4159999999999999</v>
       </c>
       <c r="D5">
         <f t="shared" si="0"/>
-        <v>2.2067953020134228</v>
+        <v>1.8453389830508475</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
@@ -17397,8 +18732,8 @@
       <c r="B6">
         <v>1</v>
       </c>
-      <c r="C6" s="1">
-        <v>20449</v>
+      <c r="C6">
+        <v>5.9279999999999999</v>
       </c>
       <c r="D6">
         <f>$C$6/C6</f>
@@ -17412,12 +18747,12 @@
       <c r="B7">
         <v>2</v>
       </c>
-      <c r="C7" s="1">
-        <v>29693</v>
+      <c r="C7">
+        <v>3.0329999999999999</v>
       </c>
       <c r="D7">
-        <f t="shared" ref="D7:D11" si="1">$C$6/C7</f>
-        <v>0.68868083386656787</v>
+        <f t="shared" ref="D7:D10" si="1">$C$6/C7</f>
+        <v>1.9545004945598419</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
@@ -17427,12 +18762,12 @@
       <c r="B8">
         <v>4</v>
       </c>
-      <c r="C8" s="1">
-        <v>16045</v>
+      <c r="C8">
+        <v>3.0310000000000001</v>
       </c>
       <c r="D8">
         <f t="shared" si="1"/>
-        <v>1.2744780305391088</v>
+        <v>1.9557901682612997</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
@@ -17442,12 +18777,12 @@
       <c r="B9">
         <v>8</v>
       </c>
-      <c r="C9" s="1">
-        <v>13216</v>
+      <c r="C9">
+        <v>3.0470000000000002</v>
       </c>
       <c r="D9">
         <f t="shared" si="1"/>
-        <v>1.5472911622276029</v>
+        <v>1.9455201837873317</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
@@ -17457,12 +18792,12 @@
       <c r="B10">
         <v>16</v>
       </c>
-      <c r="C10" s="1">
-        <v>11301</v>
+      <c r="C10">
+        <v>3.0310000000000001</v>
       </c>
       <c r="D10">
         <f t="shared" si="1"/>
-        <v>1.8094858862047607</v>
+        <v>1.9557901682612997</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
@@ -17472,8 +18807,8 @@
       <c r="B11">
         <v>1</v>
       </c>
-      <c r="C11" s="1">
-        <v>82582</v>
+      <c r="C11">
+        <v>22.879000000000001</v>
       </c>
       <c r="D11">
         <f>$C$11/C11</f>
@@ -17487,12 +18822,12 @@
       <c r="B12">
         <v>2</v>
       </c>
-      <c r="C12" s="1">
-        <v>53041</v>
+      <c r="C12">
+        <v>11.906000000000001</v>
       </c>
       <c r="D12">
         <f t="shared" ref="D12:D15" si="2">$C$11/C12</f>
-        <v>1.5569465130747913</v>
+        <v>1.9216361498404166</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
@@ -17502,12 +18837,12 @@
       <c r="B13">
         <v>4</v>
       </c>
-      <c r="C13" s="1">
-        <v>66275</v>
+      <c r="C13">
+        <v>12.038</v>
       </c>
       <c r="D13">
         <f t="shared" si="2"/>
-        <v>1.24605054696341</v>
+        <v>1.9005648778866921</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
@@ -17517,12 +18852,12 @@
       <c r="B14">
         <v>8</v>
       </c>
-      <c r="C14" s="1">
-        <v>63838</v>
+      <c r="C14">
+        <v>12.21</v>
       </c>
       <c r="D14">
         <f t="shared" si="2"/>
-        <v>1.2936182211222156</v>
+        <v>1.8737919737919737</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
@@ -17532,12 +18867,12 @@
       <c r="B15">
         <v>16</v>
       </c>
-      <c r="C15" s="1">
-        <v>51754</v>
+      <c r="C15">
+        <v>11.997999999999999</v>
       </c>
       <c r="D15">
         <f t="shared" si="2"/>
-        <v>1.5956641032577192</v>
+        <v>1.9069011501916988</v>
       </c>
     </row>
   </sheetData>
@@ -17551,7 +18886,7 @@
   <dimension ref="A1:D15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="O31" sqref="O31"/>
+      <selection activeCell="F30" sqref="F30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -17563,8 +18898,8 @@
       <c r="B1">
         <v>1</v>
       </c>
-      <c r="C1" s="1">
-        <v>11707</v>
+      <c r="C1">
+        <v>3.496</v>
       </c>
       <c r="D1">
         <f>$C$1/C1</f>
@@ -17578,12 +18913,12 @@
       <c r="B2">
         <v>2</v>
       </c>
-      <c r="C2" s="1">
-        <v>7371</v>
+      <c r="C2">
+        <v>1.85</v>
       </c>
       <c r="D2">
         <f t="shared" ref="D2:D5" si="0">$C$1/C2</f>
-        <v>1.5882512549179215</v>
+        <v>1.8897297297297297</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -17593,12 +18928,12 @@
       <c r="B3">
         <v>4</v>
       </c>
-      <c r="C3" s="1">
-        <v>6834</v>
+      <c r="C3">
+        <v>1.865</v>
       </c>
       <c r="D3">
         <f t="shared" si="0"/>
-        <v>1.7130523851331578</v>
+        <v>1.8745308310991957</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
@@ -17608,12 +18943,12 @@
       <c r="B4">
         <v>8</v>
       </c>
-      <c r="C4" s="1">
-        <v>7140</v>
+      <c r="C4">
+        <v>1.861</v>
       </c>
       <c r="D4">
         <f t="shared" si="0"/>
-        <v>1.6396358543417366</v>
+        <v>1.878559914024718</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
@@ -17623,12 +18958,12 @@
       <c r="B5">
         <v>16</v>
       </c>
-      <c r="C5" s="1">
-        <v>6478</v>
+      <c r="C5">
+        <v>1.8580000000000001</v>
       </c>
       <c r="D5">
         <f t="shared" si="0"/>
-        <v>1.8071935782648967</v>
+        <v>1.8815931108719053</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
@@ -17638,8 +18973,8 @@
       <c r="B6">
         <v>1</v>
       </c>
-      <c r="C6" s="1">
-        <v>34015</v>
+      <c r="C6">
+        <v>7.8570000000000002</v>
       </c>
       <c r="D6">
         <f>$C$6/C6</f>
@@ -17653,12 +18988,12 @@
       <c r="B7">
         <v>2</v>
       </c>
-      <c r="C7" s="1">
-        <v>25682</v>
+      <c r="C7">
+        <v>4.0949999999999998</v>
       </c>
       <c r="D7">
-        <f t="shared" ref="D7:D11" si="1">$C$6/C7</f>
-        <v>1.3244684993380578</v>
+        <f t="shared" ref="D7:D10" si="1">$C$6/C7</f>
+        <v>1.9186813186813187</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
@@ -17668,12 +19003,12 @@
       <c r="B8">
         <v>4</v>
       </c>
-      <c r="C8" s="1">
-        <v>20574</v>
+      <c r="C8">
+        <v>4.13</v>
       </c>
       <c r="D8">
         <f t="shared" si="1"/>
-        <v>1.6533002819092057</v>
+        <v>1.9024213075060534</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
@@ -17683,12 +19018,12 @@
       <c r="B9">
         <v>8</v>
       </c>
-      <c r="C9" s="1">
-        <v>22566</v>
+      <c r="C9">
+        <v>4.1449999999999996</v>
       </c>
       <c r="D9">
         <f t="shared" si="1"/>
-        <v>1.507356199592307</v>
+        <v>1.8955367913148373</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
@@ -17698,12 +19033,12 @@
       <c r="B10">
         <v>16</v>
       </c>
-      <c r="C10" s="1">
-        <v>16025</v>
+      <c r="C10">
+        <v>4.1289999999999996</v>
       </c>
       <c r="D10">
         <f t="shared" si="1"/>
-        <v>2.1226209048361935</v>
+        <v>1.9028820537660454</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
@@ -17713,8 +19048,8 @@
       <c r="B11">
         <v>1</v>
       </c>
-      <c r="C11" s="1">
-        <v>108870</v>
+      <c r="C11">
+        <v>31.446000000000002</v>
       </c>
       <c r="D11">
         <f>$C$11/C11</f>
@@ -17728,12 +19063,12 @@
       <c r="B12">
         <v>2</v>
       </c>
-      <c r="C12" s="1">
-        <v>95471</v>
+      <c r="C12">
+        <v>16.212</v>
       </c>
       <c r="D12">
         <f t="shared" ref="D12:D15" si="2">$C$11/C12</f>
-        <v>1.1403462831645212</v>
+        <v>1.9396743153219838</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
@@ -17743,12 +19078,12 @@
       <c r="B13">
         <v>4</v>
       </c>
-      <c r="C13" s="1">
-        <v>39292</v>
+      <c r="C13">
+        <v>16.382000000000001</v>
       </c>
       <c r="D13">
         <f t="shared" si="2"/>
-        <v>2.7707930367504834</v>
+        <v>1.9195458429984129</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
@@ -17758,12 +19093,12 @@
       <c r="B14">
         <v>8</v>
       </c>
-      <c r="C14" s="1">
-        <v>55387</v>
+      <c r="C14">
+        <v>16.396000000000001</v>
       </c>
       <c r="D14">
         <f t="shared" si="2"/>
-        <v>1.9656237023128171</v>
+        <v>1.9179068065381801</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
@@ -17773,12 +19108,12 @@
       <c r="B15">
         <v>16</v>
       </c>
-      <c r="C15" s="1">
-        <v>55330</v>
+      <c r="C15">
+        <v>16.398</v>
       </c>
       <c r="D15">
         <f t="shared" si="2"/>
-        <v>1.9676486535333453</v>
+        <v>1.9176728869374315</v>
       </c>
     </row>
   </sheetData>

--- a/posix/Charts.xlsx
+++ b/posix/Charts.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" tabRatio="500" activeTab="9"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" tabRatio="500" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Time 720" sheetId="1" r:id="rId1"/>
@@ -14385,7 +14385,7 @@
   <dimension ref="A1:E36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2:D36"/>
+      <selection activeCell="D1" sqref="D1:E36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -15047,8 +15047,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F27" sqref="F27"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K43" sqref="K43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -15289,7 +15289,7 @@
   <dimension ref="A1:S32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="N18" sqref="N18:N32"/>
+      <selection activeCell="M44" sqref="M44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -17129,8 +17129,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D35"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="P43" sqref="P43"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D1" sqref="D1:D35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
